--- a/Analysis/Excel/New Analysis.xlsx
+++ b/Analysis/Excel/New Analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\passa\Documents\Scuola\Corsi\Fisica\Laboratorio\LaboratorioOtticaElettronicaFModerna\Git\Millikan\Analysis\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\passa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="70">
   <si>
     <t>Costanti varie</t>
   </si>
@@ -221,18 +221,6 @@
     <t>Column8</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>$q \si{\coulomb}$</t>
   </si>
   <si>
@@ -241,15 +229,49 @@
   <si>
     <t>Err. Rel.</t>
   </si>
+  <si>
+    <t>$q \si{\coulomb\per\meter}$</t>
+  </si>
+  <si>
+    <t>$\sigma_{e/m}$</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>err q</t>
+  </si>
+  <si>
+    <t>err em</t>
+  </si>
+  <si>
+    <t>err</t>
+  </si>
+  <si>
+    <t>err Rel</t>
+  </si>
+  <si>
+    <t>$z$ di Gauss</t>
+  </si>
+  <si>
+    <t>$\sigma_m$</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>$q \si{\kilo\gram}$</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -324,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -560,18 +582,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -25431,16 +25456,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -25473,10 +25498,10 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="F6" s="188" t="s">
+      <c r="F6" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="188"/>
+      <c r="G6" s="194"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -25693,7 +25718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="E16" workbookViewId="0">
       <selection activeCell="B61" sqref="B61:B70"/>
     </sheetView>
   </sheetViews>
@@ -25710,17 +25735,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="65" t="s">
@@ -25856,17 +25881,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="68"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="68"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -27174,7 +27199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C13"/>
     </sheetView>
   </sheetViews>
@@ -27191,17 +27216,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="73" t="s">
@@ -27337,17 +27362,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="76"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -28655,7 +28680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="C13" workbookViewId="0">
       <selection activeCell="B61" sqref="B61:B70"/>
     </sheetView>
   </sheetViews>
@@ -28672,17 +28697,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="81" t="s">
@@ -28818,17 +28843,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="84"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="84"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -30136,7 +30161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="B13" workbookViewId="0">
       <selection activeCell="F54" sqref="F54:F55"/>
     </sheetView>
   </sheetViews>
@@ -30153,17 +30178,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="89" t="s">
@@ -30299,17 +30324,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="92"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="92"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -31617,7 +31642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="E39" sqref="E38:E39"/>
     </sheetView>
   </sheetViews>
@@ -31634,17 +31659,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="97" t="s">
@@ -31780,17 +31805,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="100"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="100"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -33115,17 +33140,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="106" t="s">
@@ -33261,17 +33286,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="109"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="109"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -34596,17 +34621,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="114" t="s">
@@ -34742,17 +34767,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="117"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="117"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -36060,7 +36085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B61" sqref="B61:B70"/>
     </sheetView>
   </sheetViews>
@@ -36077,17 +36102,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="122" t="s">
@@ -36223,17 +36248,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="125"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="125"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -37541,7 +37566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B61" sqref="B61:B70"/>
     </sheetView>
   </sheetViews>
@@ -37558,17 +37583,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="130" t="s">
@@ -37704,17 +37729,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="133"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="133"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -39022,7 +39047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="D7" workbookViewId="0">
       <selection activeCell="D61" sqref="D61:D71"/>
     </sheetView>
   </sheetViews>
@@ -39039,17 +39064,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="138" t="s">
@@ -39185,17 +39210,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="141"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="141"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -40527,17 +40552,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -40666,17 +40691,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -41950,7 +41975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="D19" workbookViewId="0">
       <selection activeCell="B61" sqref="B61:B70"/>
     </sheetView>
   </sheetViews>
@@ -41967,17 +41992,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="146" t="s">
@@ -42113,17 +42138,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="149"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="149"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -43431,7 +43456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="E19" workbookViewId="0">
       <selection activeCell="B61" sqref="B61:B70"/>
     </sheetView>
   </sheetViews>
@@ -43448,17 +43473,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="154" t="s">
@@ -43594,17 +43619,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="157"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="157"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -44912,7 +44937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="C19" workbookViewId="0">
       <selection activeCell="B61" sqref="B61:B70"/>
     </sheetView>
   </sheetViews>
@@ -44929,17 +44954,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="162" t="s">
@@ -45075,17 +45100,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="165"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="165"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -46394,7 +46419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="E19" workbookViewId="0">
       <selection activeCell="B61" sqref="B61:B70"/>
     </sheetView>
   </sheetViews>
@@ -46411,17 +46436,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="170" t="s">
@@ -46557,17 +46582,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="173"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="173"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -47875,7 +47900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C13" workbookViewId="0">
       <selection activeCell="B61" sqref="B61:B70"/>
     </sheetView>
   </sheetViews>
@@ -47892,17 +47917,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="178" t="s">
@@ -48038,17 +48063,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="181"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="181"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -49357,13 +49382,15 @@
   <dimension ref="B4:AB130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H17" sqref="F16:H17"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="19" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -49374,1178 +49401,1503 @@
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>1.7398800000000001</v>
+        <v>1.5157757890000001</v>
       </c>
       <c r="C5">
         <f>B5*0.0000000000000000001</f>
-        <v>1.7398800000000001E-19</v>
+        <v>1.5157757890000001E-19</v>
+      </c>
+      <c r="E5">
+        <f>C5-1.6021E-19</f>
+        <v>-8.6324210999999979E-21</v>
+      </c>
+      <c r="F5">
+        <f>E5/F10</f>
+        <v>-0.63040479724727971</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
       <c r="C6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B7" s="179">
+        <f>C7*10000000000000000000</f>
+        <v>30.7</v>
+      </c>
       <c r="C7" s="179">
         <v>3.0699999999999998E-18</v>
       </c>
       <c r="D7">
         <f>(C7/INT(C7/$C$5+0.5))^2</f>
-        <v>2.9089197530864198E-38</v>
+        <v>2.3562249999999999E-38</v>
+      </c>
+      <c r="E7" s="179">
+        <f>C7/INT(C7/$C$5+0.5)</f>
+        <v>1.5349999999999999E-19</v>
       </c>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B8" s="179">
+        <f t="shared" ref="B8:B71" si="0">C8*10000000000000000000</f>
+        <v>34.4</v>
+      </c>
       <c r="C8" s="179">
         <v>3.4400000000000002E-18</v>
       </c>
       <c r="D8" s="186">
-        <f t="shared" ref="D8:D71" si="0">(C8/INT(C8/$C$5+0.5))^2</f>
-        <v>2.9584E-38</v>
+        <f t="shared" ref="D8:D71" si="1">(C8/INT(C8/$C$5+0.5))^2</f>
+        <v>2.2369754253308127E-38</v>
+      </c>
+      <c r="E8" s="179">
+        <f t="shared" ref="E8:E71" si="2">C8/INT(C8/$C$5+0.5)</f>
+        <v>1.4956521739130435E-19</v>
       </c>
       <c r="F8">
         <f>SUM(D7:D130)</f>
-        <v>3.7229020789059632E-36</v>
+        <v>2.8599142589052974E-36</v>
       </c>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="179">
+        <f t="shared" si="0"/>
+        <v>33.800000000000004</v>
+      </c>
       <c r="C9" s="179">
         <v>3.3800000000000001E-18</v>
       </c>
       <c r="D9" s="186">
+        <f t="shared" si="1"/>
+        <v>2.360413223140496E-38</v>
+      </c>
+      <c r="E9" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5363636363636364E-19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B10" s="179">
         <f t="shared" si="0"/>
-        <v>3.1646537396121884E-38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+        <v>34.1</v>
+      </c>
       <c r="C10" s="179">
         <v>3.41E-18</v>
       </c>
       <c r="D10" s="186">
-        <f t="shared" si="0"/>
-        <v>2.9070250000000002E-38</v>
+        <f t="shared" si="1"/>
+        <v>2.4024999999999998E-38</v>
+      </c>
+      <c r="E10" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5499999999999999E-19</v>
       </c>
       <c r="F10">
         <f>SQRT(F8/(COUNT(D7:D130)*(COUNT(D7:D130)-1)))</f>
-        <v>1.5623466783220076E-20</v>
+        <v>1.3693457184485676E-20</v>
       </c>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="179">
+        <f t="shared" si="0"/>
+        <v>57.6</v>
+      </c>
       <c r="C11" s="179">
         <v>5.7600000000000002E-18</v>
       </c>
       <c r="D11" s="186">
+        <f t="shared" si="1"/>
+        <v>2.297617728531856E-38</v>
+      </c>
+      <c r="E11" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5157894736842106E-19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B12" s="179">
         <f t="shared" si="0"/>
-        <v>3.0466115702479344E-38</v>
-      </c>
-    </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+        <v>44.400000000000006</v>
+      </c>
       <c r="C12" s="179">
         <v>4.4400000000000003E-18</v>
       </c>
       <c r="D12" s="186">
+        <f t="shared" si="1"/>
+        <v>2.3440665873959574E-38</v>
+      </c>
+      <c r="E12" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5310344827586208E-19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B13" s="179">
         <f t="shared" si="0"/>
-        <v>2.9162130177514798E-38</v>
-      </c>
-    </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+        <v>48.7</v>
+      </c>
       <c r="C13" s="179">
         <v>4.8700000000000003E-18</v>
       </c>
       <c r="D13" s="186">
+        <f t="shared" si="1"/>
+        <v>2.3161035156250004E-38</v>
+      </c>
+      <c r="E13" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5218750000000001E-19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B14" s="179">
         <f t="shared" si="0"/>
-        <v>3.025114795918368E-38</v>
-      </c>
-    </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
       <c r="C14" s="179">
         <v>1.05E-17</v>
       </c>
       <c r="D14" s="186">
+        <f t="shared" si="1"/>
+        <v>2.3156899810964079E-38</v>
+      </c>
+      <c r="E14" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5217391304347825E-19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="179">
         <f t="shared" si="0"/>
-        <v>3.0624999999999996E-38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
       <c r="C15" s="179">
         <v>1.0600000000000001E-17</v>
       </c>
       <c r="D15" s="186">
-        <f t="shared" si="0"/>
-        <v>3.0196183821553347E-38</v>
-      </c>
-      <c r="M15" s="189">
+        <f t="shared" si="1"/>
+        <v>2.2930612244897962E-38</v>
+      </c>
+      <c r="E15" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5142857142857144E-19</v>
+      </c>
+      <c r="M15" s="187">
         <v>3.0699999999999998E-18</v>
       </c>
-      <c r="N15" s="189">
+      <c r="N15" s="187">
         <v>9.6900000000000001E-18</v>
       </c>
-      <c r="O15" s="189">
+      <c r="O15" s="187">
         <v>1.4599999999999999E-18</v>
       </c>
-      <c r="P15" s="189">
+      <c r="P15" s="187">
         <v>1.71E-18</v>
       </c>
-      <c r="Q15" s="189">
+      <c r="Q15" s="187">
         <v>7.4900000000000002E-19</v>
       </c>
-      <c r="R15" s="189">
+      <c r="R15" s="187">
         <v>2.4300000000000002E-18</v>
       </c>
-      <c r="S15" s="189">
+      <c r="S15" s="187">
         <v>4.8599999999999996E-19</v>
       </c>
-      <c r="V15" s="191">
+      <c r="V15" s="189">
         <f>M15*10000000000000000000</f>
         <v>30.7</v>
       </c>
-      <c r="W15" s="191">
-        <f t="shared" ref="W15:AB15" si="1">N15*10000000000000000000</f>
+      <c r="W15" s="189">
+        <f t="shared" ref="W15:AB15" si="3">N15*10000000000000000000</f>
         <v>96.9</v>
       </c>
-      <c r="X15" s="191">
-        <f t="shared" si="1"/>
+      <c r="X15" s="189">
+        <f t="shared" si="3"/>
         <v>14.6</v>
       </c>
-      <c r="Y15" s="191">
-        <f t="shared" si="1"/>
+      <c r="Y15" s="189">
+        <f t="shared" si="3"/>
         <v>17.099999999999998</v>
       </c>
-      <c r="Z15" s="191">
-        <f t="shared" si="1"/>
+      <c r="Z15" s="189">
+        <f t="shared" si="3"/>
         <v>7.49</v>
       </c>
-      <c r="AA15" s="191">
-        <f t="shared" si="1"/>
+      <c r="AA15" s="189">
+        <f t="shared" si="3"/>
         <v>24.3</v>
       </c>
-      <c r="AB15" s="191">
-        <f t="shared" si="1"/>
+      <c r="AB15" s="189">
+        <f t="shared" si="3"/>
         <v>4.8599999999999994</v>
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="179">
+        <f t="shared" si="0"/>
+        <v>86.3</v>
+      </c>
       <c r="C16" s="179">
         <v>8.6299999999999995E-18</v>
       </c>
       <c r="D16" s="186">
+        <f t="shared" si="1"/>
+        <v>2.2923022468451826E-38</v>
+      </c>
+      <c r="E16" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5140350877192981E-19</v>
+      </c>
+      <c r="F16" s="191" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="191" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="191" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="191" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="188">
+        <v>3.4400000000000002E-18</v>
+      </c>
+      <c r="N16" s="188">
+        <v>4.4300000000000003E-18</v>
+      </c>
+      <c r="O16" s="188">
+        <v>1.5100000000000001E-18</v>
+      </c>
+      <c r="P16" s="188">
+        <v>1.67E-18</v>
+      </c>
+      <c r="Q16" s="188">
+        <v>7.57E-19</v>
+      </c>
+      <c r="R16" s="188">
+        <v>2.1400000000000002E-18</v>
+      </c>
+      <c r="S16" s="188">
+        <v>4.5600000000000002E-19</v>
+      </c>
+      <c r="V16" s="190">
+        <f t="shared" ref="V16:V32" si="4">M16*10000000000000000000</f>
+        <v>34.4</v>
+      </c>
+      <c r="W16" s="190">
+        <f t="shared" ref="W16:W32" si="5">N16*10000000000000000000</f>
+        <v>44.300000000000004</v>
+      </c>
+      <c r="X16" s="190">
+        <f t="shared" ref="X16:X32" si="6">O16*10000000000000000000</f>
+        <v>15.100000000000001</v>
+      </c>
+      <c r="Y16" s="190">
+        <f t="shared" ref="Y16:Y32" si="7">P16*10000000000000000000</f>
+        <v>16.7</v>
+      </c>
+      <c r="Z16" s="190">
+        <f t="shared" ref="Z16:Z32" si="8">Q16*10000000000000000000</f>
+        <v>7.57</v>
+      </c>
+      <c r="AA16" s="190">
+        <f t="shared" ref="AA16:AA31" si="9">R16*10000000000000000000</f>
+        <v>21.400000000000002</v>
+      </c>
+      <c r="AB16" s="190">
+        <f t="shared" ref="AB16:AB31" si="10">S16*10000000000000000000</f>
+        <v>4.5600000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B17" s="179">
         <f t="shared" si="0"/>
-        <v>2.9790760000000001E-38</v>
-      </c>
-      <c r="F16" s="193" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="193" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="193" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="190">
-        <v>3.4400000000000002E-18</v>
-      </c>
-      <c r="N16" s="190">
-        <v>4.4300000000000003E-18</v>
-      </c>
-      <c r="O16" s="190">
-        <v>1.5100000000000001E-18</v>
-      </c>
-      <c r="P16" s="190">
-        <v>1.67E-18</v>
-      </c>
-      <c r="Q16" s="190">
-        <v>7.57E-19</v>
-      </c>
-      <c r="R16" s="190">
-        <v>2.1400000000000002E-18</v>
-      </c>
-      <c r="S16" s="190">
-        <v>4.5600000000000002E-19</v>
-      </c>
-      <c r="V16" s="192">
-        <f t="shared" ref="V16:V32" si="2">M16*10000000000000000000</f>
-        <v>34.4</v>
-      </c>
-      <c r="W16" s="192">
-        <f t="shared" ref="W16:W32" si="3">N16*10000000000000000000</f>
-        <v>44.300000000000004</v>
-      </c>
-      <c r="X16" s="192">
-        <f t="shared" ref="X16:X32" si="4">O16*10000000000000000000</f>
-        <v>15.100000000000001</v>
-      </c>
-      <c r="Y16" s="192">
-        <f t="shared" ref="Y16:Y32" si="5">P16*10000000000000000000</f>
-        <v>16.7</v>
-      </c>
-      <c r="Z16" s="192">
-        <f t="shared" ref="Z16:Z32" si="6">Q16*10000000000000000000</f>
-        <v>7.57</v>
-      </c>
-      <c r="AA16" s="192">
-        <f t="shared" ref="AA16:AA32" si="7">R16*10000000000000000000</f>
-        <v>21.400000000000002</v>
-      </c>
-      <c r="AB16" s="192">
-        <f t="shared" ref="AB16:AB32" si="8">S16*10000000000000000000</f>
-        <v>4.5600000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.25">
+        <v>96.9</v>
+      </c>
       <c r="C17" s="179">
         <v>9.6900000000000001E-18</v>
       </c>
       <c r="D17" s="186">
+        <f t="shared" si="1"/>
+        <v>2.2923852539062499E-38</v>
+      </c>
+      <c r="E17" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5140625E-19</v>
+      </c>
+      <c r="F17" s="192" t="str">
+        <f>"\num{" &amp; TEXT(C5*10000000000000000000,"0.00")&amp;"E-19}"</f>
+        <v>\num{1.52E-19}</v>
+      </c>
+      <c r="G17" s="192" t="str">
+        <f>"\num{"&amp;TEXT(F10*10000000000000000000,"0.00")&amp;"E-19}"</f>
+        <v>\num{0.14E-19}</v>
+      </c>
+      <c r="H17" s="192">
+        <f>F10/C5</f>
+        <v>9.0339595630562458E-2</v>
+      </c>
+      <c r="I17" s="196">
+        <f>F5</f>
+        <v>-0.63040479724727971</v>
+      </c>
+      <c r="M17" s="187">
+        <v>3.3800000000000001E-18</v>
+      </c>
+      <c r="N17" s="187">
+        <v>4.6899999999999997E-18</v>
+      </c>
+      <c r="O17" s="187">
+        <v>1.3600000000000001E-18</v>
+      </c>
+      <c r="P17" s="187">
+        <v>1.7599999999999999E-18</v>
+      </c>
+      <c r="Q17" s="187">
+        <v>6.8999999999999999E-19</v>
+      </c>
+      <c r="R17" s="187">
+        <v>2.0399999999999999E-18</v>
+      </c>
+      <c r="S17" s="187">
+        <v>1.9699999999999999E-18</v>
+      </c>
+      <c r="V17" s="189">
+        <f t="shared" si="4"/>
+        <v>33.800000000000004</v>
+      </c>
+      <c r="W17" s="189">
+        <f t="shared" si="5"/>
+        <v>46.9</v>
+      </c>
+      <c r="X17" s="189">
+        <f t="shared" si="6"/>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="Y17" s="189">
+        <f t="shared" si="7"/>
+        <v>17.599999999999998</v>
+      </c>
+      <c r="Z17" s="189">
+        <f t="shared" si="8"/>
+        <v>6.8999999999999995</v>
+      </c>
+      <c r="AA17" s="189">
+        <f t="shared" si="9"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="AB17" s="189">
+        <f t="shared" si="10"/>
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B18" s="179">
         <f t="shared" si="0"/>
-        <v>2.9941358418367343E-38</v>
-      </c>
-      <c r="F17" s="194" t="str">
-        <f>"\num{" &amp; TEXT(C5*10000000000000000000,"0.00")&amp;"E-19}"</f>
-        <v>\num{1.74E-19}</v>
-      </c>
-      <c r="G17" s="194" t="str">
-        <f>"\num{"&amp;TEXT(F10*10000000000000000000,"0.00")&amp;"E-19}"</f>
-        <v>\num{0.16E-19}</v>
-      </c>
-      <c r="H17" s="194">
-        <f>F10/C5</f>
-        <v>8.9796231827597731E-2</v>
-      </c>
-      <c r="M17" s="189">
-        <v>3.3800000000000001E-18</v>
-      </c>
-      <c r="N17" s="189">
-        <v>4.6899999999999997E-18</v>
-      </c>
-      <c r="O17" s="189">
-        <v>1.3600000000000001E-18</v>
-      </c>
-      <c r="P17" s="189">
-        <v>1.7599999999999999E-18</v>
-      </c>
-      <c r="Q17" s="189">
-        <v>6.8999999999999999E-19</v>
-      </c>
-      <c r="R17" s="189">
-        <v>2.0399999999999999E-18</v>
-      </c>
-      <c r="S17" s="189">
-        <v>1.9699999999999999E-18</v>
-      </c>
-      <c r="V17" s="191">
-        <f t="shared" si="2"/>
-        <v>33.800000000000004</v>
-      </c>
-      <c r="W17" s="191">
-        <f t="shared" si="3"/>
-        <v>46.9</v>
-      </c>
-      <c r="X17" s="191">
-        <f t="shared" si="4"/>
-        <v>13.600000000000001</v>
-      </c>
-      <c r="Y17" s="191">
-        <f t="shared" si="5"/>
-        <v>17.599999999999998</v>
-      </c>
-      <c r="Z17" s="191">
-        <f t="shared" si="6"/>
-        <v>6.8999999999999995</v>
-      </c>
-      <c r="AA17" s="191">
-        <f t="shared" si="7"/>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="AB17" s="191">
-        <f t="shared" si="8"/>
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.25">
+        <v>44.300000000000004</v>
+      </c>
       <c r="C18" s="179">
         <v>4.4300000000000003E-18</v>
       </c>
       <c r="D18" s="186">
+        <f t="shared" si="1"/>
+        <v>2.3335196195005945E-38</v>
+      </c>
+      <c r="E18" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5275862068965517E-19</v>
+      </c>
+      <c r="M18" s="188">
+        <v>3.41E-18</v>
+      </c>
+      <c r="N18" s="188">
+        <v>4.64E-18</v>
+      </c>
+      <c r="O18" s="188">
+        <v>1.44E-18</v>
+      </c>
+      <c r="P18" s="188">
+        <v>2.1299999999999998E-18</v>
+      </c>
+      <c r="Q18" s="188">
+        <v>7.3200000000000003E-19</v>
+      </c>
+      <c r="R18" s="188">
+        <v>2.0800000000000001E-18</v>
+      </c>
+      <c r="S18" s="188">
+        <v>2.1E-18</v>
+      </c>
+      <c r="V18" s="190">
+        <f t="shared" si="4"/>
+        <v>34.1</v>
+      </c>
+      <c r="W18" s="190">
+        <f t="shared" si="5"/>
+        <v>46.4</v>
+      </c>
+      <c r="X18" s="190">
+        <f t="shared" si="6"/>
+        <v>14.4</v>
+      </c>
+      <c r="Y18" s="190">
+        <f t="shared" si="7"/>
+        <v>21.299999999999997</v>
+      </c>
+      <c r="Z18" s="190">
+        <f t="shared" si="8"/>
+        <v>7.32</v>
+      </c>
+      <c r="AA18" s="190">
+        <f t="shared" si="9"/>
+        <v>20.8</v>
+      </c>
+      <c r="AB18" s="190">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B19" s="179">
         <f t="shared" si="0"/>
-        <v>3.1399840000000003E-38</v>
-      </c>
-      <c r="M18" s="190">
-        <v>3.41E-18</v>
-      </c>
-      <c r="N18" s="190">
+        <v>46.9</v>
+      </c>
+      <c r="C19" s="179">
+        <v>4.6899999999999997E-18</v>
+      </c>
+      <c r="D19" s="186">
+        <f t="shared" si="1"/>
+        <v>2.2888761706555667E-38</v>
+      </c>
+      <c r="E19" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5129032258064515E-19</v>
+      </c>
+      <c r="M19" s="187">
+        <v>5.7600000000000002E-18</v>
+      </c>
+      <c r="N19" s="187">
+        <v>4.35E-18</v>
+      </c>
+      <c r="O19" s="187">
+        <v>1.7800000000000002E-18</v>
+      </c>
+      <c r="P19" s="187">
+        <v>2.54E-18</v>
+      </c>
+      <c r="Q19" s="187">
+        <v>7.1599999999999998E-19</v>
+      </c>
+      <c r="R19" s="187">
+        <v>1.34E-18</v>
+      </c>
+      <c r="S19" s="187">
+        <v>2.18E-18</v>
+      </c>
+      <c r="V19" s="189">
+        <f t="shared" si="4"/>
+        <v>57.6</v>
+      </c>
+      <c r="W19" s="189">
+        <f t="shared" si="5"/>
+        <v>43.5</v>
+      </c>
+      <c r="X19" s="189">
+        <f t="shared" si="6"/>
+        <v>17.8</v>
+      </c>
+      <c r="Y19" s="189">
+        <f t="shared" si="7"/>
+        <v>25.4</v>
+      </c>
+      <c r="Z19" s="189">
+        <f t="shared" si="8"/>
+        <v>7.16</v>
+      </c>
+      <c r="AA19" s="189">
+        <f t="shared" si="9"/>
+        <v>13.4</v>
+      </c>
+      <c r="AB19" s="189">
+        <f t="shared" si="10"/>
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B20" s="179">
+        <f t="shared" si="0"/>
+        <v>46.4</v>
+      </c>
+      <c r="C20" s="179">
         <v>4.64E-18</v>
       </c>
-      <c r="O18" s="190">
+      <c r="D20" s="186">
+        <f t="shared" si="1"/>
+        <v>2.2403329864724243E-38</v>
+      </c>
+      <c r="E20" s="179">
+        <f t="shared" si="2"/>
+        <v>1.496774193548387E-19</v>
+      </c>
+      <c r="M20" s="188">
+        <v>4.4400000000000003E-18</v>
+      </c>
+      <c r="N20" s="188">
+        <v>3.9799999999999996E-18</v>
+      </c>
+      <c r="O20" s="188">
+        <v>1.7900000000000001E-18</v>
+      </c>
+      <c r="P20" s="188">
+        <v>2.1199999999999999E-18</v>
+      </c>
+      <c r="Q20" s="188">
+        <v>8.3399999999999995E-19</v>
+      </c>
+      <c r="R20" s="188">
+        <v>1.9099999999999999E-18</v>
+      </c>
+      <c r="S20" s="188">
+        <v>2.0000000000000001E-18</v>
+      </c>
+      <c r="V20" s="190">
+        <f t="shared" si="4"/>
+        <v>44.400000000000006</v>
+      </c>
+      <c r="W20" s="190">
+        <f t="shared" si="5"/>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="X20" s="190">
+        <f t="shared" si="6"/>
+        <v>17.900000000000002</v>
+      </c>
+      <c r="Y20" s="190">
+        <f t="shared" si="7"/>
+        <v>21.2</v>
+      </c>
+      <c r="Z20" s="190">
+        <f t="shared" si="8"/>
+        <v>8.34</v>
+      </c>
+      <c r="AA20" s="190">
+        <f t="shared" si="9"/>
+        <v>19.099999999999998</v>
+      </c>
+      <c r="AB20" s="190">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B21" s="179">
+        <f t="shared" si="0"/>
+        <v>43.5</v>
+      </c>
+      <c r="C21" s="179">
+        <v>4.35E-18</v>
+      </c>
+      <c r="D21" s="186">
+        <f t="shared" si="1"/>
+        <v>2.2499999999999998E-38</v>
+      </c>
+      <c r="E21" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5E-19</v>
+      </c>
+      <c r="M21" s="187">
+        <v>4.8700000000000003E-18</v>
+      </c>
+      <c r="N21" s="187">
         <v>1.44E-18</v>
       </c>
-      <c r="P18" s="190">
-        <v>2.1299999999999998E-18</v>
-      </c>
-      <c r="Q18" s="190">
-        <v>7.3200000000000003E-19</v>
-      </c>
-      <c r="R18" s="190">
+      <c r="O21" s="187">
+        <v>1.7E-18</v>
+      </c>
+      <c r="P21" s="187">
+        <v>2.1E-18</v>
+      </c>
+      <c r="Q21" s="187">
+        <v>9.1599999999999998E-19</v>
+      </c>
+      <c r="R21" s="187">
+        <v>2.2599999999999999E-18</v>
+      </c>
+      <c r="S21" s="187">
+        <v>2.02E-18</v>
+      </c>
+      <c r="V21" s="189">
+        <f t="shared" si="4"/>
+        <v>48.7</v>
+      </c>
+      <c r="W21" s="189">
+        <f t="shared" si="5"/>
+        <v>14.4</v>
+      </c>
+      <c r="X21" s="189">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="Y21" s="189">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="Z21" s="189">
+        <f t="shared" si="8"/>
+        <v>9.16</v>
+      </c>
+      <c r="AA21" s="189">
+        <f t="shared" si="9"/>
+        <v>22.599999999999998</v>
+      </c>
+      <c r="AB21" s="189">
+        <f t="shared" si="10"/>
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B22" s="179">
+        <f t="shared" si="0"/>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="C22" s="179">
+        <v>3.9799999999999996E-18</v>
+      </c>
+      <c r="D22" s="186">
+        <f t="shared" si="1"/>
+        <v>2.3432544378698222E-38</v>
+      </c>
+      <c r="E22" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5307692307692307E-19</v>
+      </c>
+      <c r="M22" s="188">
+        <v>1.05E-17</v>
+      </c>
+      <c r="N22" s="188">
+        <v>1.3899999999999999E-18</v>
+      </c>
+      <c r="O22" s="188">
+        <v>1.9099999999999999E-18</v>
+      </c>
+      <c r="P22" s="188">
+        <v>2.03E-18</v>
+      </c>
+      <c r="Q22" s="188">
+        <v>1.13E-18</v>
+      </c>
+      <c r="R22" s="188">
+        <v>1.8000000000000001E-18</v>
+      </c>
+      <c r="S22" s="188">
+        <v>2.4199999999999998E-18</v>
+      </c>
+      <c r="V22" s="190">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="W22" s="190">
+        <f t="shared" si="5"/>
+        <v>13.899999999999999</v>
+      </c>
+      <c r="X22" s="190">
+        <f t="shared" si="6"/>
+        <v>19.099999999999998</v>
+      </c>
+      <c r="Y22" s="190">
+        <f t="shared" si="7"/>
+        <v>20.3</v>
+      </c>
+      <c r="Z22" s="190">
+        <f t="shared" si="8"/>
+        <v>11.299999999999999</v>
+      </c>
+      <c r="AA22" s="190">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="AB22" s="190">
+        <f t="shared" si="10"/>
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B23" s="179">
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+      <c r="C23" s="179">
+        <v>1.44E-18</v>
+      </c>
+      <c r="D23" s="186">
+        <f t="shared" si="1"/>
+        <v>2.0736000000000003E-38</v>
+      </c>
+      <c r="E23" s="179">
+        <f t="shared" si="2"/>
+        <v>1.4400000000000001E-19</v>
+      </c>
+      <c r="F23" s="179">
+        <v>187400000000</v>
+      </c>
+      <c r="G23" s="179">
+        <v>15500000000</v>
+      </c>
+      <c r="H23" s="179">
+        <f>1/G23^2</f>
+        <v>4.1623309053069721E-21</v>
+      </c>
+      <c r="I23" s="179">
+        <f>H23*F23</f>
+        <v>7.8002081165452661E-10</v>
+      </c>
+      <c r="M23" s="187">
+        <v>1.0600000000000001E-17</v>
+      </c>
+      <c r="N23" s="187">
+        <v>1.49E-18</v>
+      </c>
+      <c r="O23" s="187">
+        <v>1.5299999999999999E-18</v>
+      </c>
+      <c r="P23" s="187">
         <v>2.0800000000000001E-18</v>
       </c>
-      <c r="S18" s="190">
-        <v>2.1E-18</v>
-      </c>
-      <c r="V18" s="192">
-        <f t="shared" si="2"/>
-        <v>34.1</v>
-      </c>
-      <c r="W18" s="192">
-        <f t="shared" si="3"/>
-        <v>46.4</v>
-      </c>
-      <c r="X18" s="192">
+      <c r="Q23" s="187">
+        <v>9.2599999999999993E-19</v>
+      </c>
+      <c r="R23" s="187">
+        <v>1.9400000000000001E-18</v>
+      </c>
+      <c r="S23" s="187">
+        <v>1.81E-18</v>
+      </c>
+      <c r="V23" s="189">
         <f t="shared" si="4"/>
-        <v>14.4</v>
-      </c>
-      <c r="Y18" s="192">
+        <v>106</v>
+      </c>
+      <c r="W23" s="189">
         <f t="shared" si="5"/>
-        <v>21.299999999999997</v>
-      </c>
-      <c r="Z18" s="192">
+        <v>14.9</v>
+      </c>
+      <c r="X23" s="189">
         <f t="shared" si="6"/>
-        <v>7.32</v>
-      </c>
-      <c r="AA18" s="192">
+        <v>15.299999999999999</v>
+      </c>
+      <c r="Y23" s="189">
         <f t="shared" si="7"/>
         <v>20.8</v>
       </c>
-      <c r="AB18" s="192">
+      <c r="Z23" s="189">
         <f t="shared" si="8"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C19" s="179">
-        <v>4.6899999999999997E-18</v>
-      </c>
-      <c r="D19" s="186">
+        <v>9.26</v>
+      </c>
+      <c r="AA23" s="189">
+        <f t="shared" si="9"/>
+        <v>19.400000000000002</v>
+      </c>
+      <c r="AB23" s="189">
+        <f t="shared" si="10"/>
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B24" s="179">
         <f t="shared" si="0"/>
-        <v>3.0172976680384082E-38</v>
-      </c>
-      <c r="M19" s="189">
-        <v>5.7600000000000002E-18</v>
-      </c>
-      <c r="N19" s="189">
-        <v>4.35E-18</v>
-      </c>
-      <c r="O19" s="189">
-        <v>1.7800000000000002E-18</v>
-      </c>
-      <c r="P19" s="189">
-        <v>2.54E-18</v>
-      </c>
-      <c r="Q19" s="189">
-        <v>7.1599999999999998E-19</v>
-      </c>
-      <c r="R19" s="189">
+        <v>13.899999999999999</v>
+      </c>
+      <c r="C24" s="179">
+        <v>1.3899999999999999E-18</v>
+      </c>
+      <c r="D24" s="186">
+        <f t="shared" si="1"/>
+        <v>2.3853086419753082E-38</v>
+      </c>
+      <c r="E24" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5444444444444443E-19</v>
+      </c>
+      <c r="F24" s="179">
+        <v>168400000000</v>
+      </c>
+      <c r="G24" s="179">
+        <v>14700000000</v>
+      </c>
+      <c r="H24" s="179">
+        <f>1/G24^2</f>
+        <v>4.6277014207043365E-21</v>
+      </c>
+      <c r="I24" s="179">
+        <f>H24*F24</f>
+        <v>7.7930491924661029E-10</v>
+      </c>
+      <c r="M24" s="188">
+        <v>8.6299999999999995E-18</v>
+      </c>
+      <c r="N24" s="188">
+        <v>1.52E-18</v>
+      </c>
+      <c r="O24" s="188">
+        <v>1.7900000000000001E-18</v>
+      </c>
+      <c r="P24" s="188">
+        <v>1.55E-18</v>
+      </c>
+      <c r="Q24" s="188">
+        <v>9.92E-19</v>
+      </c>
+      <c r="R24" s="188">
+        <v>1.8600000000000001E-18</v>
+      </c>
+      <c r="S24" s="188">
+        <v>1.9400000000000001E-18</v>
+      </c>
+      <c r="V24" s="190">
+        <f t="shared" si="4"/>
+        <v>86.3</v>
+      </c>
+      <c r="W24" s="190">
+        <f t="shared" si="5"/>
+        <v>15.2</v>
+      </c>
+      <c r="X24" s="190">
+        <f t="shared" si="6"/>
+        <v>17.900000000000002</v>
+      </c>
+      <c r="Y24" s="190">
+        <f t="shared" si="7"/>
+        <v>15.5</v>
+      </c>
+      <c r="Z24" s="190">
+        <f t="shared" si="8"/>
+        <v>9.92</v>
+      </c>
+      <c r="AA24" s="190">
+        <f t="shared" si="9"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AB24" s="190">
+        <f t="shared" si="10"/>
+        <v>19.400000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B25" s="179">
+        <f t="shared" si="0"/>
+        <v>14.9</v>
+      </c>
+      <c r="C25" s="179">
+        <v>1.49E-18</v>
+      </c>
+      <c r="D25" s="186">
+        <f t="shared" si="1"/>
+        <v>2.2200999999999996E-38</v>
+      </c>
+      <c r="E25" s="179">
+        <f t="shared" si="2"/>
+        <v>1.4899999999999999E-19</v>
+      </c>
+      <c r="H25" s="179">
+        <f>H24+H23</f>
+        <v>8.7900323260113086E-21</v>
+      </c>
+      <c r="I25" s="179">
+        <f>I24+I23</f>
+        <v>1.5593257309011368E-9</v>
+      </c>
+      <c r="M25" s="187">
+        <v>1.4300000000000001E-18</v>
+      </c>
+      <c r="N25" s="187">
         <v>1.34E-18</v>
       </c>
-      <c r="S19" s="189">
-        <v>2.18E-18</v>
-      </c>
-      <c r="V19" s="191">
+      <c r="O25" s="187">
+        <v>1.8199999999999999E-18</v>
+      </c>
+      <c r="P25" s="187">
+        <v>2.2200000000000001E-18</v>
+      </c>
+      <c r="Q25" s="187">
+        <v>1.89E-18</v>
+      </c>
+      <c r="R25" s="187">
+        <v>1.7499999999999999E-18</v>
+      </c>
+      <c r="S25" s="187">
+        <v>2.2300000000000001E-18</v>
+      </c>
+      <c r="V25" s="189">
+        <f t="shared" si="4"/>
+        <v>14.3</v>
+      </c>
+      <c r="W25" s="189">
+        <f t="shared" si="5"/>
+        <v>13.4</v>
+      </c>
+      <c r="X25" s="189">
+        <f t="shared" si="6"/>
+        <v>18.2</v>
+      </c>
+      <c r="Y25" s="189">
+        <f t="shared" si="7"/>
+        <v>22.200000000000003</v>
+      </c>
+      <c r="Z25" s="189">
+        <f t="shared" si="8"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AA25" s="189">
+        <f t="shared" si="9"/>
+        <v>17.5</v>
+      </c>
+      <c r="AB25" s="189">
+        <f t="shared" si="10"/>
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B26" s="179">
+        <f t="shared" si="0"/>
+        <v>15.2</v>
+      </c>
+      <c r="C26" s="179">
+        <v>1.52E-18</v>
+      </c>
+      <c r="D26" s="186">
+        <f t="shared" si="1"/>
+        <v>2.3103999999999997E-38</v>
+      </c>
+      <c r="E26" s="179">
         <f t="shared" si="2"/>
-        <v>57.6</v>
-      </c>
-      <c r="W19" s="191">
-        <f t="shared" si="3"/>
-        <v>43.5</v>
-      </c>
-      <c r="X19" s="191">
+        <v>1.5199999999999999E-19</v>
+      </c>
+      <c r="M26" s="188">
+        <v>1.66E-18</v>
+      </c>
+      <c r="N26" s="188">
+        <v>1.63E-18</v>
+      </c>
+      <c r="O26" s="188">
+        <v>1.7900000000000001E-18</v>
+      </c>
+      <c r="P26" s="188">
+        <v>2.1999999999999998E-18</v>
+      </c>
+      <c r="Q26" s="188">
+        <v>2.2699999999999999E-18</v>
+      </c>
+      <c r="R26" s="188">
+        <v>4.7199999999999997E-19</v>
+      </c>
+      <c r="S26" s="188">
+        <v>1.9099999999999999E-18</v>
+      </c>
+      <c r="V26" s="190">
         <f t="shared" si="4"/>
-        <v>17.8</v>
-      </c>
-      <c r="Y19" s="191">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="W26" s="190">
         <f t="shared" si="5"/>
-        <v>25.4</v>
-      </c>
-      <c r="Z19" s="191">
+        <v>16.3</v>
+      </c>
+      <c r="X26" s="190">
         <f t="shared" si="6"/>
-        <v>7.16</v>
-      </c>
-      <c r="AA19" s="191">
+        <v>17.900000000000002</v>
+      </c>
+      <c r="Y26" s="190">
         <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="Z26" s="190">
+        <f t="shared" si="8"/>
+        <v>22.7</v>
+      </c>
+      <c r="AA26" s="190">
+        <f t="shared" si="9"/>
+        <v>4.72</v>
+      </c>
+      <c r="AB26" s="190">
+        <f t="shared" si="10"/>
+        <v>19.099999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B27" s="179">
+        <f t="shared" si="0"/>
         <v>13.4</v>
       </c>
-      <c r="AB19" s="191">
+      <c r="C27" s="179">
+        <v>1.34E-18</v>
+      </c>
+      <c r="D27" s="186">
+        <f t="shared" si="1"/>
+        <v>2.21679012345679E-38</v>
+      </c>
+      <c r="E27" s="179">
+        <f t="shared" si="2"/>
+        <v>1.4888888888888888E-19</v>
+      </c>
+      <c r="I27" s="179">
+        <f>I25/H25</f>
+        <v>177397041679.44952</v>
+      </c>
+      <c r="J27" s="179">
+        <v>175880000000</v>
+      </c>
+      <c r="M27" s="187">
+        <v>1.7699999999999998E-18</v>
+      </c>
+      <c r="N27" s="187">
+        <v>1.67E-18</v>
+      </c>
+      <c r="O27" s="187">
+        <v>1.5100000000000001E-18</v>
+      </c>
+      <c r="P27" s="187">
+        <v>2.1899999999999999E-18</v>
+      </c>
+      <c r="Q27" s="187">
+        <v>2.46E-18</v>
+      </c>
+      <c r="R27" s="187">
+        <v>4.5799999999999999E-19</v>
+      </c>
+      <c r="S27" s="187">
+        <v>1.0299999999999999E-18</v>
+      </c>
+      <c r="V27" s="189">
+        <f t="shared" si="4"/>
+        <v>17.7</v>
+      </c>
+      <c r="W27" s="189">
+        <f t="shared" si="5"/>
+        <v>16.7</v>
+      </c>
+      <c r="X27" s="189">
+        <f t="shared" si="6"/>
+        <v>15.100000000000001</v>
+      </c>
+      <c r="Y27" s="189">
+        <f t="shared" si="7"/>
+        <v>21.9</v>
+      </c>
+      <c r="Z27" s="189">
         <f t="shared" si="8"/>
-        <v>21.8</v>
-      </c>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C20" s="179">
-        <v>4.64E-18</v>
-      </c>
-      <c r="D20" s="186">
+        <v>24.6</v>
+      </c>
+      <c r="AA27" s="189">
+        <f t="shared" si="9"/>
+        <v>4.58</v>
+      </c>
+      <c r="AB27" s="189">
+        <f t="shared" si="10"/>
+        <v>10.299999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B28" s="179">
         <f t="shared" si="0"/>
-        <v>2.953305898491084E-38</v>
-      </c>
-      <c r="M20" s="190">
-        <v>4.4400000000000003E-18</v>
-      </c>
-      <c r="N20" s="190">
-        <v>3.9799999999999996E-18</v>
-      </c>
-      <c r="O20" s="190">
-        <v>1.7900000000000001E-18</v>
-      </c>
-      <c r="P20" s="190">
-        <v>2.1199999999999999E-18</v>
-      </c>
-      <c r="Q20" s="190">
-        <v>8.3399999999999995E-19</v>
-      </c>
-      <c r="R20" s="190">
-        <v>1.9099999999999999E-18</v>
-      </c>
-      <c r="S20" s="190">
-        <v>2.0000000000000001E-18</v>
-      </c>
-      <c r="V20" s="192">
+        <v>14.3</v>
+      </c>
+      <c r="C28" s="179">
+        <v>1.4300000000000001E-18</v>
+      </c>
+      <c r="D28" s="186">
+        <f t="shared" si="1"/>
+        <v>2.5245679012345685E-38</v>
+      </c>
+      <c r="E28" s="179">
         <f t="shared" si="2"/>
-        <v>44.400000000000006</v>
-      </c>
-      <c r="W20" s="192">
-        <f t="shared" si="3"/>
-        <v>39.799999999999997</v>
-      </c>
-      <c r="X20" s="192">
+        <v>1.588888888888889E-19</v>
+      </c>
+      <c r="I28" s="179">
+        <f>SQRT(H25^-1)</f>
+        <v>10666078210.574499</v>
+      </c>
+      <c r="M28" s="188">
+        <v>1.5400000000000001E-18</v>
+      </c>
+      <c r="N28" s="188">
+        <v>1.73E-18</v>
+      </c>
+      <c r="O28" s="188">
+        <v>1.6900000000000001E-18</v>
+      </c>
+      <c r="P28" s="188">
+        <v>2.3000000000000001E-18</v>
+      </c>
+      <c r="Q28" s="188">
+        <v>2.1400000000000002E-18</v>
+      </c>
+      <c r="R28" s="188">
+        <v>4.5999999999999996E-19</v>
+      </c>
+      <c r="S28" s="188">
+        <v>1.0299999999999999E-18</v>
+      </c>
+      <c r="V28" s="190">
         <f t="shared" si="4"/>
-        <v>17.900000000000002</v>
-      </c>
-      <c r="Y20" s="192">
+        <v>15.4</v>
+      </c>
+      <c r="W28" s="190">
         <f t="shared" si="5"/>
-        <v>21.2</v>
-      </c>
-      <c r="Z20" s="192">
+        <v>17.3</v>
+      </c>
+      <c r="X28" s="190">
         <f t="shared" si="6"/>
-        <v>8.34</v>
-      </c>
-      <c r="AA20" s="192">
+        <v>16.900000000000002</v>
+      </c>
+      <c r="Y28" s="190">
         <f t="shared" si="7"/>
-        <v>19.099999999999998</v>
-      </c>
-      <c r="AB20" s="192">
+        <v>23</v>
+      </c>
+      <c r="Z28" s="190">
         <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C21" s="179">
-        <v>4.35E-18</v>
-      </c>
-      <c r="D21" s="186">
+        <v>21.400000000000002</v>
+      </c>
+      <c r="AA28" s="190">
+        <f t="shared" si="9"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AB28" s="190">
+        <f t="shared" si="10"/>
+        <v>10.299999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B29" s="179">
         <f t="shared" si="0"/>
-        <v>3.0275999999999998E-38</v>
-      </c>
-      <c r="M21" s="189">
-        <v>4.8700000000000003E-18</v>
-      </c>
-      <c r="N21" s="189">
-        <v>1.44E-18</v>
-      </c>
-      <c r="O21" s="189">
-        <v>1.7E-18</v>
-      </c>
-      <c r="P21" s="189">
-        <v>2.1E-18</v>
-      </c>
-      <c r="Q21" s="189">
-        <v>9.1599999999999998E-19</v>
-      </c>
-      <c r="R21" s="189">
-        <v>2.2599999999999999E-18</v>
-      </c>
-      <c r="S21" s="189">
-        <v>2.02E-18</v>
-      </c>
-      <c r="V21" s="191">
+        <v>14.6</v>
+      </c>
+      <c r="C29" s="179">
+        <v>1.4599999999999999E-18</v>
+      </c>
+      <c r="D29" s="186">
+        <f t="shared" si="1"/>
+        <v>2.1315999999999995E-38</v>
+      </c>
+      <c r="E29" s="179">
         <f t="shared" si="2"/>
-        <v>48.7</v>
-      </c>
-      <c r="W21" s="191">
-        <f t="shared" si="3"/>
-        <v>14.4</v>
-      </c>
-      <c r="X21" s="191">
+        <v>1.4599999999999998E-19</v>
+      </c>
+      <c r="M29" s="187">
+        <v>1.63E-18</v>
+      </c>
+      <c r="N29" s="187">
+        <v>2.03E-18</v>
+      </c>
+      <c r="O29" s="187">
+        <v>1.73E-18</v>
+      </c>
+      <c r="P29" s="187">
+        <v>2.2200000000000001E-18</v>
+      </c>
+      <c r="Q29" s="187">
+        <v>2.2699999999999999E-18</v>
+      </c>
+      <c r="R29" s="187">
+        <v>3.3599999999999998E-19</v>
+      </c>
+      <c r="S29" s="187">
+        <v>1.0400000000000001E-18</v>
+      </c>
+      <c r="V29" s="189">
         <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="Y21" s="191">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="Z21" s="191">
-        <f t="shared" si="6"/>
-        <v>9.16</v>
-      </c>
-      <c r="AA21" s="191">
-        <f t="shared" si="7"/>
-        <v>22.599999999999998</v>
-      </c>
-      <c r="AB21" s="191">
-        <f t="shared" si="8"/>
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C22" s="179">
-        <v>3.9799999999999996E-18</v>
-      </c>
-      <c r="D22" s="186">
-        <f t="shared" si="0"/>
-        <v>2.9944045368620033E-38</v>
-      </c>
-      <c r="M22" s="190">
-        <v>1.05E-17</v>
-      </c>
-      <c r="N22" s="190">
-        <v>1.3899999999999999E-18</v>
-      </c>
-      <c r="O22" s="190">
-        <v>1.9099999999999999E-18</v>
-      </c>
-      <c r="P22" s="190">
-        <v>2.03E-18</v>
-      </c>
-      <c r="Q22" s="190">
-        <v>1.13E-18</v>
-      </c>
-      <c r="R22" s="190">
-        <v>1.8000000000000001E-18</v>
-      </c>
-      <c r="S22" s="190">
-        <v>2.4199999999999998E-18</v>
-      </c>
-      <c r="V22" s="192">
-        <f t="shared" si="2"/>
-        <v>105</v>
-      </c>
-      <c r="W22" s="192">
-        <f t="shared" si="3"/>
-        <v>13.899999999999999</v>
-      </c>
-      <c r="X22" s="192">
-        <f t="shared" si="4"/>
-        <v>19.099999999999998</v>
-      </c>
-      <c r="Y22" s="192">
+        <v>16.3</v>
+      </c>
+      <c r="W29" s="189">
         <f t="shared" si="5"/>
         <v>20.3</v>
       </c>
-      <c r="Z22" s="192">
+      <c r="X29" s="189">
         <f t="shared" si="6"/>
-        <v>11.299999999999999</v>
-      </c>
-      <c r="AA22" s="192">
+        <v>17.3</v>
+      </c>
+      <c r="Y29" s="189">
         <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="AB22" s="192">
+        <v>22.200000000000003</v>
+      </c>
+      <c r="Z29" s="189">
         <f t="shared" si="8"/>
-        <v>24.2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C23" s="179">
-        <v>1.44E-18</v>
-      </c>
-      <c r="D23" s="186">
+        <v>22.7</v>
+      </c>
+      <c r="AA29" s="189">
+        <f t="shared" si="9"/>
+        <v>3.36</v>
+      </c>
+      <c r="AB29" s="189">
+        <f t="shared" si="10"/>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B30" s="179">
         <f t="shared" si="0"/>
-        <v>3.2400000000000001E-38</v>
-      </c>
-      <c r="M23" s="189">
-        <v>1.0600000000000001E-17</v>
-      </c>
-      <c r="N23" s="189">
-        <v>1.49E-18</v>
-      </c>
-      <c r="O23" s="189">
-        <v>1.5299999999999999E-18</v>
-      </c>
-      <c r="P23" s="189">
-        <v>2.0800000000000001E-18</v>
-      </c>
-      <c r="Q23" s="189">
-        <v>9.2599999999999993E-19</v>
-      </c>
-      <c r="R23" s="189">
-        <v>1.9400000000000001E-18</v>
-      </c>
-      <c r="S23" s="189">
-        <v>1.81E-18</v>
-      </c>
-      <c r="V23" s="191">
-        <f t="shared" si="2"/>
-        <v>106</v>
-      </c>
-      <c r="W23" s="191">
-        <f t="shared" si="3"/>
-        <v>14.9</v>
-      </c>
-      <c r="X23" s="191">
-        <f t="shared" si="4"/>
-        <v>15.299999999999999</v>
-      </c>
-      <c r="Y23" s="191">
-        <f t="shared" si="5"/>
-        <v>20.8</v>
-      </c>
-      <c r="Z23" s="191">
-        <f t="shared" si="6"/>
-        <v>9.26</v>
-      </c>
-      <c r="AA23" s="191">
-        <f t="shared" si="7"/>
-        <v>19.400000000000002</v>
-      </c>
-      <c r="AB23" s="191">
-        <f t="shared" si="8"/>
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C24" s="179">
-        <v>1.3899999999999999E-18</v>
-      </c>
-      <c r="D24" s="186">
-        <f t="shared" si="0"/>
-        <v>3.0189062499999996E-38</v>
-      </c>
-      <c r="M24" s="190">
-        <v>8.6299999999999995E-18</v>
-      </c>
-      <c r="N24" s="190">
-        <v>1.52E-18</v>
-      </c>
-      <c r="O24" s="190">
-        <v>1.7900000000000001E-18</v>
-      </c>
-      <c r="P24" s="190">
-        <v>1.55E-18</v>
-      </c>
-      <c r="Q24" s="190">
-        <v>9.92E-19</v>
-      </c>
-      <c r="R24" s="190">
-        <v>1.8600000000000001E-18</v>
-      </c>
-      <c r="S24" s="190">
-        <v>1.9400000000000001E-18</v>
-      </c>
-      <c r="V24" s="192">
-        <f t="shared" si="2"/>
-        <v>86.3</v>
-      </c>
-      <c r="W24" s="192">
-        <f t="shared" si="3"/>
-        <v>15.2</v>
-      </c>
-      <c r="X24" s="192">
-        <f t="shared" si="4"/>
-        <v>17.900000000000002</v>
-      </c>
-      <c r="Y24" s="192">
-        <f t="shared" si="5"/>
-        <v>15.5</v>
-      </c>
-      <c r="Z24" s="192">
-        <f t="shared" si="6"/>
-        <v>9.92</v>
-      </c>
-      <c r="AA24" s="192">
-        <f t="shared" si="7"/>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="AB24" s="192">
-        <f t="shared" si="8"/>
-        <v>19.400000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C25" s="179">
-        <v>1.49E-18</v>
-      </c>
-      <c r="D25" s="186">
-        <f t="shared" si="0"/>
-        <v>2.7408641975308641E-38</v>
-      </c>
-      <c r="M25" s="189">
-        <v>1.4300000000000001E-18</v>
-      </c>
-      <c r="N25" s="189">
-        <v>1.34E-18</v>
-      </c>
-      <c r="O25" s="189">
-        <v>1.8199999999999999E-18</v>
-      </c>
-      <c r="P25" s="189">
-        <v>2.2200000000000001E-18</v>
-      </c>
-      <c r="Q25" s="189">
-        <v>1.89E-18</v>
-      </c>
-      <c r="R25" s="189">
-        <v>1.7499999999999999E-18</v>
-      </c>
-      <c r="S25" s="189">
-        <v>2.2300000000000001E-18</v>
-      </c>
-      <c r="V25" s="191">
-        <f t="shared" si="2"/>
-        <v>14.3</v>
-      </c>
-      <c r="W25" s="191">
-        <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="X25" s="191">
-        <f t="shared" si="4"/>
-        <v>18.2</v>
-      </c>
-      <c r="Y25" s="191">
-        <f t="shared" si="5"/>
-        <v>22.200000000000003</v>
-      </c>
-      <c r="Z25" s="191">
-        <f t="shared" si="6"/>
-        <v>18.899999999999999</v>
-      </c>
-      <c r="AA25" s="191">
-        <f t="shared" si="7"/>
-        <v>17.5</v>
-      </c>
-      <c r="AB25" s="191">
-        <f t="shared" si="8"/>
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C26" s="179">
-        <v>1.52E-18</v>
-      </c>
-      <c r="D26" s="186">
-        <f t="shared" si="0"/>
-        <v>2.8523456790123461E-38</v>
-      </c>
-      <c r="M26" s="190">
-        <v>1.66E-18</v>
-      </c>
-      <c r="N26" s="190">
-        <v>1.63E-18</v>
-      </c>
-      <c r="O26" s="190">
-        <v>1.7900000000000001E-18</v>
-      </c>
-      <c r="P26" s="190">
-        <v>2.1999999999999998E-18</v>
-      </c>
-      <c r="Q26" s="190">
-        <v>2.2699999999999999E-18</v>
-      </c>
-      <c r="R26" s="190">
-        <v>4.7199999999999997E-19</v>
-      </c>
-      <c r="S26" s="190">
-        <v>1.9099999999999999E-18</v>
-      </c>
-      <c r="V26" s="192">
-        <f t="shared" si="2"/>
-        <v>16.600000000000001</v>
-      </c>
-      <c r="W26" s="192">
-        <f t="shared" si="3"/>
-        <v>16.3</v>
-      </c>
-      <c r="X26" s="192">
-        <f t="shared" si="4"/>
-        <v>17.900000000000002</v>
-      </c>
-      <c r="Y26" s="192">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="Z26" s="192">
-        <f t="shared" si="6"/>
-        <v>22.7</v>
-      </c>
-      <c r="AA26" s="192">
-        <f t="shared" si="7"/>
-        <v>4.72</v>
-      </c>
-      <c r="AB26" s="192">
-        <f t="shared" si="8"/>
-        <v>19.099999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C27" s="179">
-        <v>1.34E-18</v>
-      </c>
-      <c r="D27" s="186">
-        <f t="shared" si="0"/>
-        <v>2.8056249999999999E-38</v>
-      </c>
-      <c r="M27" s="189">
-        <v>1.7699999999999998E-18</v>
-      </c>
-      <c r="N27" s="189">
-        <v>1.67E-18</v>
-      </c>
-      <c r="O27" s="189">
-        <v>1.5100000000000001E-18</v>
-      </c>
-      <c r="P27" s="189">
-        <v>2.1899999999999999E-18</v>
-      </c>
-      <c r="Q27" s="189">
-        <v>2.46E-18</v>
-      </c>
-      <c r="R27" s="189">
-        <v>4.5799999999999999E-19</v>
-      </c>
-      <c r="S27" s="189">
-        <v>1.0299999999999999E-18</v>
-      </c>
-      <c r="V27" s="191">
-        <f t="shared" si="2"/>
-        <v>17.7</v>
-      </c>
-      <c r="W27" s="191">
-        <f t="shared" si="3"/>
-        <v>16.7</v>
-      </c>
-      <c r="X27" s="191">
-        <f t="shared" si="4"/>
         <v>15.100000000000001</v>
       </c>
-      <c r="Y27" s="191">
-        <f t="shared" si="5"/>
-        <v>21.9</v>
-      </c>
-      <c r="Z27" s="191">
-        <f t="shared" si="6"/>
-        <v>24.6</v>
-      </c>
-      <c r="AA27" s="191">
-        <f t="shared" si="7"/>
-        <v>4.58</v>
-      </c>
-      <c r="AB27" s="191">
-        <f t="shared" si="8"/>
-        <v>10.299999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C28" s="179">
-        <v>1.4300000000000001E-18</v>
-      </c>
-      <c r="D28" s="186">
-        <f t="shared" si="0"/>
-        <v>3.1951562500000005E-38</v>
-      </c>
-      <c r="M28" s="190">
-        <v>1.5400000000000001E-18</v>
-      </c>
-      <c r="N28" s="190">
-        <v>1.73E-18</v>
-      </c>
-      <c r="O28" s="190">
-        <v>1.6900000000000001E-18</v>
-      </c>
-      <c r="P28" s="190">
-        <v>2.3000000000000001E-18</v>
-      </c>
-      <c r="Q28" s="190">
-        <v>2.1400000000000002E-18</v>
-      </c>
-      <c r="R28" s="190">
-        <v>4.5999999999999996E-19</v>
-      </c>
-      <c r="S28" s="190">
-        <v>1.0299999999999999E-18</v>
-      </c>
-      <c r="V28" s="192">
-        <f t="shared" si="2"/>
-        <v>15.4</v>
-      </c>
-      <c r="W28" s="192">
-        <f t="shared" si="3"/>
-        <v>17.3</v>
-      </c>
-      <c r="X28" s="192">
-        <f t="shared" si="4"/>
-        <v>16.900000000000002</v>
-      </c>
-      <c r="Y28" s="192">
-        <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="Z28" s="192">
-        <f t="shared" si="6"/>
-        <v>21.400000000000002</v>
-      </c>
-      <c r="AA28" s="192">
-        <f t="shared" si="7"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AB28" s="192">
-        <f t="shared" si="8"/>
-        <v>10.299999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C29" s="179">
-        <v>1.4599999999999999E-18</v>
-      </c>
-      <c r="D29" s="186">
-        <f t="shared" si="0"/>
-        <v>3.3306249999999996E-38</v>
-      </c>
-      <c r="M29" s="189">
-        <v>1.63E-18</v>
-      </c>
-      <c r="N29" s="189">
-        <v>2.03E-18</v>
-      </c>
-      <c r="O29" s="189">
-        <v>1.73E-18</v>
-      </c>
-      <c r="P29" s="189">
-        <v>2.2200000000000001E-18</v>
-      </c>
-      <c r="Q29" s="189">
-        <v>2.2699999999999999E-18</v>
-      </c>
-      <c r="R29" s="189">
-        <v>3.3599999999999998E-19</v>
-      </c>
-      <c r="S29" s="189">
-        <v>1.0400000000000001E-18</v>
-      </c>
-      <c r="V29" s="191">
-        <f t="shared" si="2"/>
-        <v>16.3</v>
-      </c>
-      <c r="W29" s="191">
-        <f t="shared" si="3"/>
-        <v>20.3</v>
-      </c>
-      <c r="X29" s="191">
-        <f t="shared" si="4"/>
-        <v>17.3</v>
-      </c>
-      <c r="Y29" s="191">
-        <f t="shared" si="5"/>
-        <v>22.200000000000003</v>
-      </c>
-      <c r="Z29" s="191">
-        <f t="shared" si="6"/>
-        <v>22.7</v>
-      </c>
-      <c r="AA29" s="191">
-        <f t="shared" si="7"/>
-        <v>3.36</v>
-      </c>
-      <c r="AB29" s="191">
-        <f t="shared" si="8"/>
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C30" s="179">
         <v>1.5100000000000001E-18</v>
       </c>
       <c r="D30" s="186">
+        <f t="shared" si="1"/>
+        <v>2.2801000000000003E-38</v>
+      </c>
+      <c r="E30" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5100000000000001E-19</v>
+      </c>
+      <c r="M30" s="188">
+        <v>1.56E-18</v>
+      </c>
+      <c r="N30" s="188">
+        <v>1.62E-18</v>
+      </c>
+      <c r="O30" s="188">
+        <v>1.6099999999999999E-18</v>
+      </c>
+      <c r="P30" s="188">
+        <v>2.4099999999999999E-18</v>
+      </c>
+      <c r="Q30" s="188">
+        <v>4.6200000000000003E-19</v>
+      </c>
+      <c r="R30" s="188">
+        <v>4.8399999999999999E-19</v>
+      </c>
+      <c r="S30" s="188">
+        <v>1.05E-18</v>
+      </c>
+      <c r="V30" s="190">
+        <f t="shared" si="4"/>
+        <v>15.6</v>
+      </c>
+      <c r="W30" s="190">
+        <f t="shared" si="5"/>
+        <v>16.2</v>
+      </c>
+      <c r="X30" s="190">
+        <f t="shared" si="6"/>
+        <v>16.099999999999998</v>
+      </c>
+      <c r="Y30" s="190">
+        <f t="shared" si="7"/>
+        <v>24.099999999999998</v>
+      </c>
+      <c r="Z30" s="190">
+        <f t="shared" si="8"/>
+        <v>4.62</v>
+      </c>
+      <c r="AA30" s="190">
+        <f t="shared" si="9"/>
+        <v>4.84</v>
+      </c>
+      <c r="AB30" s="190">
+        <f t="shared" si="10"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B31" s="179">
         <f t="shared" si="0"/>
-        <v>2.8149382716049386E-38</v>
-      </c>
-      <c r="M30" s="190">
-        <v>1.56E-18</v>
-      </c>
-      <c r="N30" s="190">
-        <v>1.62E-18</v>
-      </c>
-      <c r="O30" s="190">
-        <v>1.6099999999999999E-18</v>
-      </c>
-      <c r="P30" s="190">
-        <v>2.4099999999999999E-18</v>
-      </c>
-      <c r="Q30" s="190">
-        <v>4.6200000000000003E-19</v>
-      </c>
-      <c r="R30" s="190">
-        <v>4.8399999999999999E-19</v>
-      </c>
-      <c r="S30" s="190">
-        <v>1.05E-18</v>
-      </c>
-      <c r="V30" s="192">
-        <f t="shared" si="2"/>
-        <v>15.6</v>
-      </c>
-      <c r="W30" s="192">
-        <f t="shared" si="3"/>
-        <v>16.2</v>
-      </c>
-      <c r="X30" s="192">
-        <f t="shared" si="4"/>
-        <v>16.099999999999998</v>
-      </c>
-      <c r="Y30" s="192">
-        <f t="shared" si="5"/>
-        <v>24.099999999999998</v>
-      </c>
-      <c r="Z30" s="192">
-        <f t="shared" si="6"/>
-        <v>4.62</v>
-      </c>
-      <c r="AA30" s="192">
-        <f t="shared" si="7"/>
-        <v>4.84</v>
-      </c>
-      <c r="AB30" s="192">
-        <f t="shared" si="8"/>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.25">
+        <v>13.600000000000001</v>
+      </c>
       <c r="C31" s="179">
         <v>1.3600000000000001E-18</v>
       </c>
       <c r="D31" s="186">
+        <f t="shared" si="1"/>
+        <v>2.2834567901234567E-38</v>
+      </c>
+      <c r="E31" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5111111111111111E-19</v>
+      </c>
+      <c r="M31" s="187">
+        <v>1.89E-18</v>
+      </c>
+      <c r="N31" s="187">
+        <v>1.66E-18</v>
+      </c>
+      <c r="O31" s="187">
+        <v>1.73E-18</v>
+      </c>
+      <c r="P31" s="187">
+        <v>1.6799999999999999E-18</v>
+      </c>
+      <c r="Q31" s="187">
+        <v>4.6599999999999997E-19</v>
+      </c>
+      <c r="R31" s="187">
+        <v>5.1199999999999995E-19</v>
+      </c>
+      <c r="S31" s="187">
+        <v>9.7000000000000004E-19</v>
+      </c>
+      <c r="V31" s="189">
+        <f t="shared" si="4"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="W31" s="189">
+        <f t="shared" si="5"/>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="X31" s="189">
+        <f t="shared" si="6"/>
+        <v>17.3</v>
+      </c>
+      <c r="Y31" s="189">
+        <f t="shared" si="7"/>
+        <v>16.8</v>
+      </c>
+      <c r="Z31" s="189">
+        <f t="shared" si="8"/>
+        <v>4.6599999999999993</v>
+      </c>
+      <c r="AA31" s="189">
+        <f t="shared" si="9"/>
+        <v>5.1199999999999992</v>
+      </c>
+      <c r="AB31" s="189">
+        <f t="shared" si="10"/>
+        <v>9.7000000000000011</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B32" s="179">
         <f t="shared" si="0"/>
-        <v>2.8900000000000003E-38</v>
-      </c>
-      <c r="M31" s="189">
-        <v>1.89E-18</v>
-      </c>
-      <c r="N31" s="189">
-        <v>1.66E-18</v>
-      </c>
-      <c r="O31" s="189">
-        <v>1.73E-18</v>
-      </c>
-      <c r="P31" s="189">
-        <v>1.6799999999999999E-18</v>
-      </c>
-      <c r="Q31" s="189">
-        <v>4.6599999999999997E-19</v>
-      </c>
-      <c r="R31" s="189">
-        <v>5.1199999999999995E-19</v>
-      </c>
-      <c r="S31" s="189">
-        <v>9.7000000000000004E-19</v>
-      </c>
-      <c r="V31" s="191">
-        <f t="shared" si="2"/>
-        <v>18.899999999999999</v>
-      </c>
-      <c r="W31" s="191">
-        <f t="shared" si="3"/>
-        <v>16.600000000000001</v>
-      </c>
-      <c r="X31" s="191">
-        <f t="shared" si="4"/>
-        <v>17.3</v>
-      </c>
-      <c r="Y31" s="191">
-        <f t="shared" si="5"/>
-        <v>16.8</v>
-      </c>
-      <c r="Z31" s="191">
-        <f t="shared" si="6"/>
-        <v>4.6599999999999993</v>
-      </c>
-      <c r="AA31" s="191">
-        <f t="shared" si="7"/>
-        <v>5.1199999999999992</v>
-      </c>
-      <c r="AB31" s="191">
-        <f t="shared" si="8"/>
-        <v>9.7000000000000011</v>
-      </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.25">
+        <v>14.4</v>
+      </c>
       <c r="C32" s="179">
         <v>1.44E-18</v>
       </c>
       <c r="D32" s="186">
+        <f t="shared" si="1"/>
+        <v>2.0736000000000003E-38</v>
+      </c>
+      <c r="E32" s="179">
+        <f t="shared" si="2"/>
+        <v>1.4400000000000001E-19</v>
+      </c>
+      <c r="F32" s="191" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="191" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="191" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" s="191" t="s">
+        <v>66</v>
+      </c>
+      <c r="M32" s="188">
+        <v>9.5599999999999996E-19</v>
+      </c>
+      <c r="N32" s="188">
+        <v>1.0599999999999999E-18</v>
+      </c>
+      <c r="O32" s="188">
+        <v>1.0599999999999999E-18</v>
+      </c>
+      <c r="P32" s="188">
+        <v>9.34E-19</v>
+      </c>
+      <c r="Q32" s="188">
+        <v>9.1100000000000001E-19</v>
+      </c>
+      <c r="R32" s="188"/>
+      <c r="S32" s="188"/>
+      <c r="V32" s="190">
+        <f t="shared" si="4"/>
+        <v>9.5599999999999987</v>
+      </c>
+      <c r="W32" s="190">
+        <f t="shared" si="5"/>
+        <v>10.6</v>
+      </c>
+      <c r="X32" s="190">
+        <f t="shared" si="6"/>
+        <v>10.6</v>
+      </c>
+      <c r="Y32" s="190">
+        <f t="shared" si="7"/>
+        <v>9.34</v>
+      </c>
+      <c r="Z32" s="190">
+        <f t="shared" si="8"/>
+        <v>9.11</v>
+      </c>
+      <c r="AA32" s="190"/>
+      <c r="AB32" s="190"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="179">
         <f t="shared" si="0"/>
-        <v>3.2400000000000001E-38</v>
-      </c>
-      <c r="M32" s="190">
-        <v>9.5599999999999996E-19</v>
-      </c>
-      <c r="N32" s="190">
-        <v>1.0599999999999999E-18</v>
-      </c>
-      <c r="O32" s="190">
-        <v>1.0599999999999999E-18</v>
-      </c>
-      <c r="P32" s="190">
-        <v>9.34E-19</v>
-      </c>
-      <c r="Q32" s="190">
-        <v>9.1100000000000001E-19</v>
-      </c>
-      <c r="R32" s="190"/>
-      <c r="S32" s="190"/>
-      <c r="V32" s="192">
-        <f t="shared" si="2"/>
-        <v>9.5599999999999987</v>
-      </c>
-      <c r="W32" s="192">
-        <f t="shared" si="3"/>
-        <v>10.6</v>
-      </c>
-      <c r="X32" s="192">
-        <f t="shared" si="4"/>
-        <v>10.6</v>
-      </c>
-      <c r="Y32" s="192">
-        <f t="shared" si="5"/>
-        <v>9.34</v>
-      </c>
-      <c r="Z32" s="192">
-        <f t="shared" si="6"/>
-        <v>9.11</v>
-      </c>
-      <c r="AA32" s="192"/>
-      <c r="AB32" s="192"/>
-    </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+        <v>17.8</v>
+      </c>
       <c r="C33" s="179">
         <v>1.7800000000000002E-18</v>
       </c>
       <c r="D33" s="186">
+        <f t="shared" si="1"/>
+        <v>2.2002777777777781E-38</v>
+      </c>
+      <c r="E33" s="179">
+        <f t="shared" si="2"/>
+        <v>1.4833333333333334E-19</v>
+      </c>
+      <c r="F33" s="192" t="str">
+        <f>"\num{" &amp; TEXT(I27*0.00000000001,"0.00")&amp;"E11}"</f>
+        <v>\num{1.77E11}</v>
+      </c>
+      <c r="G33" s="192" t="str">
+        <f>"\num{"&amp;TEXT(I28*0.00000000001,"0.00")&amp;"E11}"</f>
+        <v>\num{0.11E11}</v>
+      </c>
+      <c r="H33" s="196">
+        <f>I28/I27</f>
+        <v>6.0125457051576674E-2</v>
+      </c>
+      <c r="I33" s="196">
+        <f>(I27-J27)/I28</f>
+        <v>0.14223050398650813</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="179">
         <f t="shared" si="0"/>
-        <v>3.1684000000000006E-38</v>
-      </c>
-    </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+        <v>17.900000000000002</v>
+      </c>
       <c r="C34" s="179">
         <v>1.7900000000000001E-18</v>
       </c>
       <c r="D34" s="186">
+        <f t="shared" si="1"/>
+        <v>2.2250694444444444E-38</v>
+      </c>
+      <c r="E34" s="179">
+        <f t="shared" si="2"/>
+        <v>1.4916666666666667E-19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="179">
         <f t="shared" si="0"/>
-        <v>3.2041000000000005E-38</v>
-      </c>
-    </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
       <c r="C35" s="179">
         <v>1.7E-18</v>
       </c>
       <c r="D35" s="186">
-        <f t="shared" si="0"/>
-        <v>2.8900000000000003E-38</v>
+        <f t="shared" si="1"/>
+        <v>2.3884297520661154E-38</v>
+      </c>
+      <c r="E35" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5454545454545454E-19</v>
       </c>
       <c r="L35" s="186" t="s">
         <v>48</v>
@@ -50572,859 +50924,1686 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="179">
+        <f t="shared" si="0"/>
+        <v>19.099999999999998</v>
+      </c>
       <c r="C36" s="179">
         <v>1.9099999999999999E-18</v>
       </c>
       <c r="D36" s="186">
+        <f t="shared" si="1"/>
+        <v>2.1586390532544379E-38</v>
+      </c>
+      <c r="E36" s="179">
+        <f t="shared" si="2"/>
+        <v>1.4692307692307692E-19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" s="179">
         <f t="shared" si="0"/>
-        <v>3.0149586776859501E-38</v>
-      </c>
-    </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+        <v>15.299999999999999</v>
+      </c>
       <c r="C37" s="179">
         <v>1.5299999999999999E-18</v>
       </c>
       <c r="D37" s="186">
+        <f t="shared" si="1"/>
+        <v>2.3409E-38</v>
+      </c>
+      <c r="E37" s="179">
+        <f t="shared" si="2"/>
+        <v>1.53E-19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="179">
         <f t="shared" si="0"/>
-        <v>2.8899999999999997E-38</v>
-      </c>
-    </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+        <v>17.900000000000002</v>
+      </c>
       <c r="C38" s="179">
         <v>1.7900000000000001E-18</v>
       </c>
       <c r="D38" s="186">
+        <f t="shared" si="1"/>
+        <v>2.2250694444444444E-38</v>
+      </c>
+      <c r="E38" s="179">
+        <f t="shared" si="2"/>
+        <v>1.4916666666666667E-19</v>
+      </c>
+      <c r="F38" s="179">
+        <f>C5/I27</f>
+        <v>8.5445381425184966E-31</v>
+      </c>
+      <c r="G38" s="179">
+        <f>F10/I27</f>
+        <v>7.7191012064503827E-32</v>
+      </c>
+      <c r="H38" s="179">
+        <f>C5*I28/I27^2</f>
+        <v>5.1374426111355465E-32</v>
+      </c>
+      <c r="I38">
+        <f>SQRT(SUMSQ(G38:H38))</f>
+        <v>9.2724236323700703E-32</v>
+      </c>
+      <c r="J38" s="179">
+        <f>I38/F38</f>
+        <v>0.10851872246001854</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="179">
         <f t="shared" si="0"/>
-        <v>3.2041000000000005E-38</v>
-      </c>
-    </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+        <v>18.2</v>
+      </c>
       <c r="C39" s="179">
         <v>1.8199999999999999E-18</v>
       </c>
       <c r="D39" s="186">
+        <f t="shared" si="1"/>
+        <v>2.3002777777777775E-38</v>
+      </c>
+      <c r="E39" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5166666666666665E-19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B40" s="179">
         <f t="shared" si="0"/>
-        <v>3.3124000000000001E-38</v>
-      </c>
-    </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+        <v>17.099999999999998</v>
+      </c>
       <c r="C40" s="179">
         <v>1.71E-18</v>
       </c>
       <c r="D40" s="186">
+        <f t="shared" si="1"/>
+        <v>2.4166115702479336E-38</v>
+      </c>
+      <c r="E40" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5545454545454544E-19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B41" s="179">
         <f t="shared" si="0"/>
-        <v>2.9241E-38</v>
-      </c>
-    </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+        <v>16.7</v>
+      </c>
       <c r="C41" s="179">
         <v>1.67E-18</v>
       </c>
       <c r="D41" s="186">
+        <f t="shared" si="1"/>
+        <v>2.3048760330578512E-38</v>
+      </c>
+      <c r="E41" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5181818181818182E-19</v>
+      </c>
+      <c r="F41" s="191" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="191" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="191" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41" s="191" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B42" s="179">
         <f t="shared" si="0"/>
-        <v>2.7889000000000001E-38</v>
-      </c>
-    </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+        <v>17.599999999999998</v>
+      </c>
       <c r="C42" s="179">
         <v>1.7599999999999999E-18</v>
       </c>
       <c r="D42" s="186">
+        <f t="shared" si="1"/>
+        <v>2.1511111111111107E-38</v>
+      </c>
+      <c r="E42" s="179">
+        <f t="shared" si="2"/>
+        <v>1.4666666666666666E-19</v>
+      </c>
+      <c r="F42" s="195">
+        <f>F38</f>
+        <v>8.5445381425184966E-31</v>
+      </c>
+      <c r="G42" s="195">
+        <f>I38</f>
+        <v>9.2724236323700703E-32</v>
+      </c>
+      <c r="H42" s="196">
+        <f>J38</f>
+        <v>0.10851872246001854</v>
+      </c>
+      <c r="I42" s="196">
+        <f>(F42-9.11E-31)/I38</f>
+        <v>-0.60983177635184183</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B43" s="179">
         <f t="shared" si="0"/>
-        <v>3.0975999999999997E-38</v>
-      </c>
-    </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+        <v>21.299999999999997</v>
+      </c>
       <c r="C43" s="179">
         <v>2.1299999999999998E-18</v>
       </c>
       <c r="D43" s="186">
+        <f t="shared" si="1"/>
+        <v>2.3147448979591832E-38</v>
+      </c>
+      <c r="E43" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5214285714285713E-19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="179">
         <f t="shared" si="0"/>
-        <v>3.1506249999999996E-38</v>
-      </c>
-    </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+        <v>25.4</v>
+      </c>
       <c r="C44" s="179">
         <v>2.54E-18</v>
       </c>
       <c r="D44" s="186">
+        <f t="shared" si="1"/>
+        <v>2.232387543252595E-38</v>
+      </c>
+      <c r="E44" s="179">
+        <f t="shared" si="2"/>
+        <v>1.4941176470588235E-19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B45" s="179">
         <f t="shared" si="0"/>
-        <v>2.867377777777778E-38</v>
-      </c>
-    </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
+        <v>21.2</v>
+      </c>
       <c r="C45" s="179">
         <v>2.1199999999999999E-18</v>
       </c>
       <c r="D45" s="186">
+        <f t="shared" si="1"/>
+        <v>2.2930612244897957E-38</v>
+      </c>
+      <c r="E45" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5142857142857142E-19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B46" s="179">
         <f t="shared" si="0"/>
-        <v>3.1211111111111111E-38</v>
-      </c>
-    </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
       <c r="C46" s="179">
         <v>2.1E-18</v>
       </c>
       <c r="D46" s="186">
+        <f t="shared" si="1"/>
+        <v>2.2499999999999998E-38</v>
+      </c>
+      <c r="E46" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5E-19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B47" s="179">
         <f t="shared" si="0"/>
-        <v>3.0625000000000001E-38</v>
-      </c>
-    </row>
-    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
+        <v>20.3</v>
+      </c>
       <c r="C47" s="179">
         <v>2.03E-18</v>
       </c>
       <c r="D47" s="186">
+        <f t="shared" si="1"/>
+        <v>2.4384023668639052E-38</v>
+      </c>
+      <c r="E47" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5615384615384615E-19</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B48" s="179">
         <f t="shared" si="0"/>
-        <v>2.8617361111111108E-38</v>
-      </c>
-    </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
+        <v>20.8</v>
+      </c>
       <c r="C48" s="179">
         <v>2.0800000000000001E-18</v>
       </c>
       <c r="D48" s="186">
+        <f t="shared" si="1"/>
+        <v>2.2073469387755102E-38</v>
+      </c>
+      <c r="E48" s="179">
+        <f t="shared" si="2"/>
+        <v>1.4857142857142858E-19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="179">
         <f t="shared" si="0"/>
-        <v>3.0044444444444451E-38</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+        <v>15.5</v>
+      </c>
       <c r="C49" s="179">
         <v>1.55E-18</v>
       </c>
       <c r="D49" s="186">
+        <f t="shared" si="1"/>
+        <v>2.4024999999999998E-38</v>
+      </c>
+      <c r="E49" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5499999999999999E-19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="179">
         <f t="shared" si="0"/>
-        <v>2.96604938271605E-38</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+        <v>22.200000000000003</v>
+      </c>
       <c r="C50" s="179">
         <v>2.2200000000000001E-18</v>
       </c>
       <c r="D50" s="186">
+        <f t="shared" si="1"/>
+        <v>2.1904000000000002E-38</v>
+      </c>
+      <c r="E50" s="179">
+        <f t="shared" si="2"/>
+        <v>1.48E-19</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="179">
         <f t="shared" si="0"/>
-        <v>2.9162130177514798E-38</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+        <v>7.49</v>
+      </c>
       <c r="C51" s="179">
         <v>7.4900000000000002E-19</v>
       </c>
       <c r="D51" s="186">
+        <f t="shared" si="1"/>
+        <v>2.2440040000000005E-38</v>
+      </c>
+      <c r="E51" s="179">
+        <f t="shared" si="2"/>
+        <v>1.4980000000000001E-19</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="179">
         <f t="shared" si="0"/>
-        <v>3.5062562500000002E-38</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+        <v>7.57</v>
+      </c>
       <c r="C52" s="179">
         <v>7.57E-19</v>
       </c>
       <c r="D52" s="186">
+        <f t="shared" si="1"/>
+        <v>2.2921959999999999E-38</v>
+      </c>
+      <c r="E52" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5139999999999999E-19</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="179">
         <f t="shared" si="0"/>
-        <v>3.5815562499999998E-38</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+        <v>6.8999999999999995</v>
+      </c>
       <c r="C53" s="179">
         <v>6.8999999999999999E-19</v>
       </c>
       <c r="D53" s="186">
+        <f t="shared" si="1"/>
+        <v>1.9044000000000003E-38</v>
+      </c>
+      <c r="E53" s="179">
+        <f t="shared" si="2"/>
+        <v>1.3800000000000001E-19</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="179">
         <f t="shared" si="0"/>
-        <v>2.9756249999999997E-38</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+        <v>7.32</v>
+      </c>
       <c r="C54" s="179">
         <v>7.3200000000000003E-19</v>
       </c>
       <c r="D54" s="186">
+        <f t="shared" si="1"/>
+        <v>2.1432959999999999E-38</v>
+      </c>
+      <c r="E54" s="179">
+        <f t="shared" si="2"/>
+        <v>1.464E-19</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="179">
         <f t="shared" si="0"/>
-        <v>3.3489000000000005E-38</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+        <v>7.16</v>
+      </c>
       <c r="C55" s="179">
         <v>7.1599999999999998E-19</v>
       </c>
       <c r="D55" s="186">
+        <f t="shared" si="1"/>
+        <v>2.0506239999999997E-38</v>
+      </c>
+      <c r="E55" s="179">
+        <f t="shared" si="2"/>
+        <v>1.4319999999999999E-19</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="179">
         <f t="shared" si="0"/>
-        <v>3.2040999999999999E-38</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+        <v>8.34</v>
+      </c>
       <c r="C56" s="179">
         <v>8.3399999999999995E-19</v>
       </c>
       <c r="D56" s="186">
+        <f t="shared" si="1"/>
+        <v>1.9320999999999998E-38</v>
+      </c>
+      <c r="E56" s="179">
+        <f t="shared" si="2"/>
+        <v>1.3899999999999999E-19</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="179">
         <f t="shared" si="0"/>
-        <v>2.782224E-38</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+        <v>9.16</v>
+      </c>
       <c r="C57" s="179">
         <v>9.1599999999999998E-19</v>
       </c>
       <c r="D57" s="186">
+        <f t="shared" si="1"/>
+        <v>2.330711111111111E-38</v>
+      </c>
+      <c r="E57" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5266666666666666E-19</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="179">
         <f t="shared" si="0"/>
-        <v>3.3562239999999999E-38</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+        <v>11.299999999999999</v>
+      </c>
       <c r="C58" s="179">
         <v>1.13E-18</v>
       </c>
       <c r="D58" s="186">
+        <f t="shared" si="1"/>
+        <v>2.6059183673469381E-38</v>
+      </c>
+      <c r="E58" s="179">
+        <f t="shared" si="2"/>
+        <v>1.6142857142857141E-19</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="179">
         <f t="shared" si="0"/>
-        <v>3.5469444444444441E-38</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+        <v>9.26</v>
+      </c>
       <c r="C59" s="179">
         <v>9.2599999999999993E-19</v>
       </c>
       <c r="D59" s="186">
+        <f t="shared" si="1"/>
+        <v>2.3818777777777777E-38</v>
+      </c>
+      <c r="E59" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5433333333333332E-19</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="179">
         <f t="shared" si="0"/>
-        <v>3.4299039999999997E-38</v>
-      </c>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+        <v>9.92</v>
+      </c>
       <c r="C60" s="179">
         <v>9.92E-19</v>
       </c>
       <c r="D60" s="186">
+        <f t="shared" si="1"/>
+        <v>2.0082938775510205E-38</v>
+      </c>
+      <c r="E60" s="179">
+        <f t="shared" si="2"/>
+        <v>1.4171428571428572E-19</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="179">
         <f t="shared" si="0"/>
-        <v>2.7335111111111107E-38</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+        <v>18.899999999999999</v>
+      </c>
       <c r="C61" s="179">
         <v>1.89E-18</v>
       </c>
       <c r="D61" s="186">
+        <f t="shared" si="1"/>
+        <v>2.480625E-38</v>
+      </c>
+      <c r="E61" s="179">
+        <f t="shared" si="2"/>
+        <v>1.575E-19</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="179">
         <f t="shared" si="0"/>
-        <v>2.9521487603305782E-38</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+        <v>24.3</v>
+      </c>
       <c r="C62" s="179">
         <v>2.4300000000000002E-18</v>
       </c>
       <c r="D62" s="186">
+        <f t="shared" si="1"/>
+        <v>2.3066015625000004E-38</v>
+      </c>
+      <c r="E62" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5187500000000001E-19</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="179">
         <f t="shared" si="0"/>
-        <v>3.0127040816326538E-38</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+        <v>21.400000000000002</v>
+      </c>
       <c r="C63" s="179">
         <v>2.1400000000000002E-18</v>
       </c>
       <c r="D63" s="186">
+        <f t="shared" si="1"/>
+        <v>2.3365306122448981E-38</v>
+      </c>
+      <c r="E63" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5285714285714286E-19</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="179">
         <f t="shared" si="0"/>
-        <v>3.1802777777777781E-38</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+        <v>20.399999999999999</v>
+      </c>
       <c r="C64" s="179">
         <v>2.0399999999999999E-18</v>
       </c>
       <c r="D64" s="186">
+        <f t="shared" si="1"/>
+        <v>2.4624852071005914E-38</v>
+      </c>
+      <c r="E64" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5692307692307692E-19</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="179">
         <f t="shared" si="0"/>
-        <v>2.8899999999999997E-38</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+        <v>20.8</v>
+      </c>
       <c r="C65" s="179">
         <v>2.0800000000000001E-18</v>
       </c>
       <c r="D65" s="186">
+        <f t="shared" si="1"/>
+        <v>2.2073469387755102E-38</v>
+      </c>
+      <c r="E65" s="179">
+        <f t="shared" si="2"/>
+        <v>1.4857142857142858E-19</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="179">
         <f t="shared" si="0"/>
-        <v>3.0044444444444451E-38</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+        <v>13.4</v>
+      </c>
       <c r="C66" s="179">
         <v>1.34E-18</v>
       </c>
       <c r="D66" s="186">
+        <f t="shared" si="1"/>
+        <v>2.21679012345679E-38</v>
+      </c>
+      <c r="E66" s="179">
+        <f t="shared" si="2"/>
+        <v>1.4888888888888888E-19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="179">
         <f t="shared" si="0"/>
-        <v>2.8056249999999999E-38</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+        <v>19.099999999999998</v>
+      </c>
       <c r="C67" s="179">
         <v>1.9099999999999999E-18</v>
       </c>
       <c r="D67" s="186">
+        <f t="shared" si="1"/>
+        <v>2.1586390532544379E-38</v>
+      </c>
+      <c r="E67" s="179">
+        <f t="shared" si="2"/>
+        <v>1.4692307692307692E-19</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="179">
         <f t="shared" si="0"/>
-        <v>3.0149586776859501E-38</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+        <v>22.599999999999998</v>
+      </c>
       <c r="C68" s="179">
         <v>2.2599999999999999E-18</v>
       </c>
       <c r="D68" s="186">
+        <f t="shared" si="1"/>
+        <v>2.2700444444444445E-38</v>
+      </c>
+      <c r="E68" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5066666666666667E-19</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="179">
         <f t="shared" si="0"/>
-        <v>3.0222485207100585E-38</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
       <c r="C69" s="179">
         <v>1.8000000000000001E-18</v>
       </c>
       <c r="D69" s="186">
+        <f t="shared" si="1"/>
+        <v>2.2499999999999998E-38</v>
+      </c>
+      <c r="E69" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5E-19</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="179">
         <f t="shared" si="0"/>
-        <v>3.2400000000000001E-38</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+        <v>19.400000000000002</v>
+      </c>
       <c r="C70" s="179">
         <v>1.9400000000000001E-18</v>
       </c>
       <c r="D70" s="186">
+        <f t="shared" si="1"/>
+        <v>2.22698224852071E-38</v>
+      </c>
+      <c r="E70" s="179">
+        <f t="shared" si="2"/>
+        <v>1.4923076923076923E-19</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="179">
         <f t="shared" si="0"/>
-        <v>3.1104132231404966E-38</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+        <v>18.600000000000001</v>
+      </c>
       <c r="C71" s="179">
         <v>1.8600000000000001E-18</v>
       </c>
       <c r="D71" s="186">
-        <f t="shared" si="0"/>
-        <v>2.8591735537190091E-38</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2.4025000000000008E-38</v>
+      </c>
+      <c r="E71" s="179">
+        <f t="shared" si="2"/>
+        <v>1.5500000000000002E-19</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="179">
+        <f t="shared" ref="B72:B130" si="11">C72*10000000000000000000</f>
+        <v>17.5</v>
+      </c>
       <c r="C72" s="179">
         <v>1.7499999999999999E-18</v>
       </c>
       <c r="D72" s="186">
-        <f t="shared" ref="D72:D130" si="9">(C72/INT(C72/$C$5+0.5))^2</f>
-        <v>3.0624999999999996E-38</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D72:D130" si="12">(C72/INT(C72/$C$5+0.5))^2</f>
+        <v>2.126736111111111E-38</v>
+      </c>
+      <c r="E72" s="179">
+        <f t="shared" ref="E72:E130" si="13">C72/INT(C72/$C$5+0.5)</f>
+        <v>1.4583333333333333E-19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="179">
+        <f t="shared" si="11"/>
+        <v>16.600000000000001</v>
+      </c>
       <c r="C73" s="179">
         <v>1.66E-18</v>
       </c>
       <c r="D73" s="186">
-        <f t="shared" si="9"/>
-        <v>2.7555999999999999E-38</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.2773553719008269E-38</v>
+      </c>
+      <c r="E73" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5090909090909092E-19</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="179">
+        <f t="shared" si="11"/>
+        <v>17.7</v>
+      </c>
       <c r="C74" s="179">
         <v>1.7699999999999998E-18</v>
       </c>
       <c r="D74" s="186">
-        <f t="shared" si="9"/>
-        <v>3.1328999999999995E-38</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.1756249999999996E-38</v>
+      </c>
+      <c r="E74" s="179">
+        <f t="shared" si="13"/>
+        <v>1.4749999999999999E-19</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="179">
+        <f t="shared" si="11"/>
+        <v>15.4</v>
+      </c>
       <c r="C75" s="179">
         <v>1.5400000000000001E-18</v>
       </c>
       <c r="D75" s="186">
-        <f t="shared" si="9"/>
-        <v>2.9279012345679015E-38</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.3716000000000003E-38</v>
+      </c>
+      <c r="E75" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5400000000000001E-19</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="179">
+        <f t="shared" si="11"/>
+        <v>16.3</v>
+      </c>
       <c r="C76" s="179">
         <v>1.63E-18</v>
       </c>
       <c r="D76" s="186">
-        <f t="shared" si="9"/>
-        <v>3.2801234567901237E-38</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.1957851239669417E-38</v>
+      </c>
+      <c r="E76" s="179">
+        <f t="shared" si="13"/>
+        <v>1.4818181818181817E-19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="179">
+        <f t="shared" si="11"/>
+        <v>15.6</v>
+      </c>
       <c r="C77" s="179">
         <v>1.56E-18</v>
       </c>
       <c r="D77" s="186">
-        <f t="shared" si="9"/>
-        <v>3.004444444444444E-38</v>
-      </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.4336E-38</v>
+      </c>
+      <c r="E77" s="179">
+        <f t="shared" si="13"/>
+        <v>1.56E-19</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="179">
+        <f t="shared" si="11"/>
+        <v>18.899999999999999</v>
+      </c>
       <c r="C78" s="179">
         <v>1.89E-18</v>
       </c>
       <c r="D78" s="186">
-        <f t="shared" si="9"/>
-        <v>2.9521487603305782E-38</v>
-      </c>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.480625E-38</v>
+      </c>
+      <c r="E78" s="179">
+        <f t="shared" si="13"/>
+        <v>1.575E-19</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="179">
+        <f t="shared" si="11"/>
+        <v>16.3</v>
+      </c>
       <c r="C79" s="179">
         <v>1.63E-18</v>
       </c>
       <c r="D79" s="186">
-        <f t="shared" si="9"/>
-        <v>3.2801234567901237E-38</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.1957851239669417E-38</v>
+      </c>
+      <c r="E79" s="179">
+        <f t="shared" si="13"/>
+        <v>1.4818181818181817E-19</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="179">
+        <f t="shared" si="11"/>
+        <v>16.7</v>
+      </c>
       <c r="C80" s="179">
         <v>1.67E-18</v>
       </c>
       <c r="D80" s="186">
-        <f t="shared" si="9"/>
-        <v>2.7889000000000001E-38</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.3048760330578512E-38</v>
+      </c>
+      <c r="E80" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5181818181818182E-19</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="179">
+        <f t="shared" si="11"/>
+        <v>17.3</v>
+      </c>
       <c r="C81" s="179">
         <v>1.73E-18</v>
       </c>
       <c r="D81" s="186">
-        <f t="shared" si="9"/>
-        <v>2.9929000000000003E-38</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.4734710743801651E-38</v>
+      </c>
+      <c r="E81" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5727272727272727E-19</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="179">
+        <f t="shared" si="11"/>
+        <v>20.3</v>
+      </c>
       <c r="C82" s="179">
         <v>2.03E-18</v>
       </c>
       <c r="D82" s="186">
-        <f t="shared" si="9"/>
-        <v>2.8617361111111108E-38</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.4384023668639052E-38</v>
+      </c>
+      <c r="E82" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5615384615384615E-19</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="179">
+        <f t="shared" si="11"/>
+        <v>16.2</v>
+      </c>
       <c r="C83" s="179">
         <v>1.62E-18</v>
       </c>
       <c r="D83" s="186">
-        <f t="shared" si="9"/>
-        <v>3.2400000000000001E-38</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.1689256198347108E-38</v>
+      </c>
+      <c r="E83" s="179">
+        <f t="shared" si="13"/>
+        <v>1.4727272727272727E-19</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="179">
+        <f t="shared" si="11"/>
+        <v>16.600000000000001</v>
+      </c>
       <c r="C84" s="179">
         <v>1.66E-18</v>
       </c>
       <c r="D84" s="186">
-        <f t="shared" si="9"/>
-        <v>2.7555999999999999E-38</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.2773553719008269E-38</v>
+      </c>
+      <c r="E84" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5090909090909092E-19</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="179">
+        <f t="shared" si="11"/>
+        <v>17.900000000000002</v>
+      </c>
       <c r="C85" s="179">
         <v>1.7900000000000001E-18</v>
       </c>
       <c r="D85" s="186">
-        <f t="shared" si="9"/>
-        <v>3.2041000000000005E-38</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.2250694444444444E-38</v>
+      </c>
+      <c r="E85" s="179">
+        <f t="shared" si="13"/>
+        <v>1.4916666666666667E-19</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="179">
+        <f t="shared" si="11"/>
+        <v>15.100000000000001</v>
+      </c>
       <c r="C86" s="179">
         <v>1.5100000000000001E-18</v>
       </c>
       <c r="D86" s="186">
-        <f t="shared" si="9"/>
-        <v>2.8149382716049386E-38</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.2801000000000003E-38</v>
+      </c>
+      <c r="E86" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5100000000000001E-19</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="179">
+        <f t="shared" si="11"/>
+        <v>16.900000000000002</v>
+      </c>
       <c r="C87" s="179">
         <v>1.6900000000000001E-18</v>
       </c>
       <c r="D87" s="186">
-        <f t="shared" si="9"/>
-        <v>2.8561000000000003E-38</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.360413223140496E-38</v>
+      </c>
+      <c r="E87" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5363636363636364E-19</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="179">
+        <f t="shared" si="11"/>
+        <v>17.3</v>
+      </c>
       <c r="C88" s="179">
         <v>1.73E-18</v>
       </c>
       <c r="D88" s="186">
-        <f t="shared" si="9"/>
-        <v>2.9929000000000003E-38</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.4734710743801651E-38</v>
+      </c>
+      <c r="E88" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5727272727272727E-19</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="179">
+        <f t="shared" si="11"/>
+        <v>16.099999999999998</v>
+      </c>
       <c r="C89" s="179">
         <v>1.6099999999999999E-18</v>
       </c>
       <c r="D89" s="186">
-        <f t="shared" si="9"/>
-        <v>3.2001234567901226E-38</v>
-      </c>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.1422314049586773E-38</v>
+      </c>
+      <c r="E89" s="179">
+        <f t="shared" si="13"/>
+        <v>1.4636363636363635E-19</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="179">
+        <f t="shared" si="11"/>
+        <v>17.3</v>
+      </c>
       <c r="C90" s="179">
         <v>1.73E-18</v>
       </c>
       <c r="D90" s="186">
-        <f t="shared" si="9"/>
-        <v>2.9929000000000003E-38</v>
-      </c>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.4734710743801651E-38</v>
+      </c>
+      <c r="E90" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5727272727272727E-19</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="179">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
       <c r="C91" s="179">
         <v>2.1999999999999998E-18</v>
       </c>
       <c r="D91" s="186">
-        <f t="shared" si="9"/>
-        <v>2.8639053254437866E-38</v>
-      </c>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.1511111111111107E-38</v>
+      </c>
+      <c r="E91" s="179">
+        <f t="shared" si="13"/>
+        <v>1.4666666666666666E-19</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="179">
+        <f t="shared" si="11"/>
+        <v>21.9</v>
+      </c>
       <c r="C92" s="179">
         <v>2.1899999999999999E-18</v>
       </c>
       <c r="D92" s="186">
-        <f t="shared" si="9"/>
-        <v>2.8379289940828399E-38</v>
-      </c>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.446989795918367E-38</v>
+      </c>
+      <c r="E92" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5642857142857141E-19</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="179">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
       <c r="C93" s="179">
         <v>2.3000000000000001E-18</v>
       </c>
       <c r="D93" s="186">
-        <f t="shared" si="9"/>
-        <v>3.1301775147928998E-38</v>
-      </c>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.3511111111111112E-38</v>
+      </c>
+      <c r="E93" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5333333333333334E-19</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="179">
+        <f t="shared" si="11"/>
+        <v>22.200000000000003</v>
+      </c>
       <c r="C94" s="179">
         <v>2.2200000000000001E-18</v>
       </c>
       <c r="D94" s="186">
-        <f t="shared" si="9"/>
-        <v>2.9162130177514798E-38</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.1904000000000002E-38</v>
+      </c>
+      <c r="E94" s="179">
+        <f t="shared" si="13"/>
+        <v>1.48E-19</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="179">
+        <f t="shared" si="11"/>
+        <v>24.099999999999998</v>
+      </c>
       <c r="C95" s="179">
         <v>2.4099999999999999E-18</v>
       </c>
       <c r="D95" s="186">
-        <f t="shared" si="9"/>
-        <v>2.9633163265306123E-38</v>
-      </c>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.2687890624999997E-38</v>
+      </c>
+      <c r="E95" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5062499999999999E-19</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="179">
+        <f t="shared" si="11"/>
+        <v>16.8</v>
+      </c>
       <c r="C96" s="179">
         <v>1.6799999999999999E-18</v>
       </c>
       <c r="D96" s="186">
-        <f t="shared" si="9"/>
-        <v>2.8223999999999995E-38</v>
-      </c>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.3325619834710742E-38</v>
+      </c>
+      <c r="E96" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5272727272727272E-19</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="179">
+        <f t="shared" si="11"/>
+        <v>22.7</v>
+      </c>
       <c r="C97" s="179">
         <v>2.2699999999999999E-18</v>
       </c>
       <c r="D97" s="186">
-        <f t="shared" si="9"/>
-        <v>3.0490532544378691E-38</v>
-      </c>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.2901777777777774E-38</v>
+      </c>
+      <c r="E97" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5133333333333332E-19</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="179">
+        <f t="shared" si="11"/>
+        <v>24.6</v>
+      </c>
       <c r="C98" s="179">
         <v>2.46E-18</v>
       </c>
       <c r="D98" s="186">
-        <f t="shared" si="9"/>
-        <v>3.0875510204081633E-38</v>
-      </c>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.3639062499999998E-38</v>
+      </c>
+      <c r="E98" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5375E-19</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="179">
+        <f t="shared" si="11"/>
+        <v>21.400000000000002</v>
+      </c>
       <c r="C99" s="179">
         <v>2.1400000000000002E-18</v>
       </c>
       <c r="D99" s="186">
-        <f t="shared" si="9"/>
-        <v>3.1802777777777781E-38</v>
-      </c>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.3365306122448981E-38</v>
+      </c>
+      <c r="E99" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5285714285714286E-19</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="179">
+        <f t="shared" si="11"/>
+        <v>22.7</v>
+      </c>
       <c r="C100" s="179">
         <v>2.2699999999999999E-18</v>
       </c>
       <c r="D100" s="186">
-        <f t="shared" si="9"/>
-        <v>3.0490532544378691E-38</v>
-      </c>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.2901777777777774E-38</v>
+      </c>
+      <c r="E100" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5133333333333332E-19</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="179">
+        <f t="shared" si="11"/>
+        <v>4.62</v>
+      </c>
       <c r="C101" s="179">
         <v>4.6200000000000003E-19</v>
       </c>
       <c r="D101" s="186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.3716000000000003E-38</v>
       </c>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5400000000000001E-19</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="179">
+        <f t="shared" si="11"/>
+        <v>4.6599999999999993</v>
+      </c>
       <c r="C102" s="179">
         <v>4.6599999999999997E-19</v>
       </c>
       <c r="D102" s="186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.4128444444444444E-38</v>
       </c>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5533333333333333E-19</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="179">
+        <f t="shared" si="11"/>
+        <v>4.72</v>
+      </c>
       <c r="C103" s="179">
         <v>4.7199999999999997E-19</v>
       </c>
       <c r="D103" s="186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.4753777777777773E-38</v>
       </c>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5733333333333332E-19</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="179">
+        <f t="shared" si="11"/>
+        <v>4.58</v>
+      </c>
       <c r="C104" s="179">
         <v>4.5799999999999999E-19</v>
       </c>
       <c r="D104" s="186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.330711111111111E-38</v>
       </c>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5266666666666666E-19</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="179">
+        <f t="shared" si="11"/>
+        <v>4.5999999999999996</v>
+      </c>
       <c r="C105" s="179">
         <v>4.5999999999999996E-19</v>
       </c>
       <c r="D105" s="186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.3511111111111106E-38</v>
       </c>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5333333333333331E-19</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="179">
+        <f t="shared" si="11"/>
+        <v>3.36</v>
+      </c>
       <c r="C106" s="179">
         <v>3.3599999999999998E-19</v>
       </c>
       <c r="D106" s="186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.8223999999999995E-38</v>
       </c>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="179">
+        <f t="shared" si="13"/>
+        <v>1.6799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="179">
+        <f t="shared" si="11"/>
+        <v>4.84</v>
+      </c>
       <c r="C107" s="179">
         <v>4.8399999999999999E-19</v>
       </c>
       <c r="D107" s="186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.6028444444444446E-38</v>
       </c>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="179">
+        <f t="shared" si="13"/>
+        <v>1.6133333333333334E-19</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="179">
+        <f t="shared" si="11"/>
+        <v>5.1199999999999992</v>
+      </c>
       <c r="C108" s="179">
         <v>5.1199999999999995E-19</v>
       </c>
       <c r="D108" s="186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.9127111111111106E-38</v>
       </c>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="179">
+        <f t="shared" si="13"/>
+        <v>1.7066666666666666E-19</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="179">
+        <f t="shared" si="11"/>
+        <v>4.8599999999999994</v>
+      </c>
       <c r="C109" s="179">
         <v>4.8599999999999996E-19</v>
       </c>
       <c r="D109" s="186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.6243999999999993E-38</v>
       </c>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="179">
+        <f t="shared" si="13"/>
+        <v>1.6199999999999999E-19</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="179">
+        <f t="shared" si="11"/>
+        <v>4.5600000000000005</v>
+      </c>
       <c r="C110" s="179">
         <v>4.5600000000000002E-19</v>
       </c>
       <c r="D110" s="186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.3104000000000005E-38</v>
       </c>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5200000000000001E-19</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="179">
+        <f t="shared" si="11"/>
+        <v>19.7</v>
+      </c>
       <c r="C111" s="179">
         <v>1.9699999999999999E-18</v>
       </c>
       <c r="D111" s="186">
-        <f t="shared" si="9"/>
-        <v>3.207355371900826E-38</v>
-      </c>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.2963905325443786E-38</v>
+      </c>
+      <c r="E111" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5153846153846153E-19</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="179">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
       <c r="C112" s="179">
         <v>2.1E-18</v>
       </c>
       <c r="D112" s="186">
-        <f t="shared" si="9"/>
-        <v>3.0625000000000001E-38</v>
-      </c>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.2499999999999998E-38</v>
+      </c>
+      <c r="E112" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5E-19</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="179">
+        <f t="shared" si="11"/>
+        <v>21.8</v>
+      </c>
       <c r="C113" s="179">
         <v>2.18E-18</v>
       </c>
       <c r="D113" s="186">
-        <f t="shared" si="9"/>
-        <v>2.8120710059171596E-38</v>
-      </c>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.4246938775510202E-38</v>
+      </c>
+      <c r="E113" s="179">
+        <f t="shared" si="13"/>
+        <v>1.557142857142857E-19</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="179">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
       <c r="C114" s="179">
         <v>2.0000000000000001E-18</v>
       </c>
       <c r="D114" s="186">
-        <f t="shared" si="9"/>
-        <v>3.3057851239669424E-38</v>
-      </c>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.3668639053254446E-38</v>
+      </c>
+      <c r="E114" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5384615384615386E-19</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="179">
+        <f t="shared" si="11"/>
+        <v>20.2</v>
+      </c>
       <c r="C115" s="179">
         <v>2.02E-18</v>
       </c>
       <c r="D115" s="186">
-        <f t="shared" si="9"/>
-        <v>2.833611111111111E-38</v>
-      </c>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.4144378698224849E-38</v>
+      </c>
+      <c r="E115" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5538461538461538E-19</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="179">
+        <f t="shared" si="11"/>
+        <v>24.2</v>
+      </c>
       <c r="C116" s="179">
         <v>2.4199999999999998E-18</v>
       </c>
       <c r="D116" s="186">
-        <f t="shared" si="9"/>
-        <v>2.9879591836734691E-38</v>
-      </c>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.2876562499999996E-38</v>
+      </c>
+      <c r="E116" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5124999999999999E-19</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="179">
+        <f t="shared" si="11"/>
+        <v>18.100000000000001</v>
+      </c>
       <c r="C117" s="179">
         <v>1.81E-18</v>
       </c>
       <c r="D117" s="186">
-        <f t="shared" si="9"/>
-        <v>3.2760999999999994E-38</v>
-      </c>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.2750694444444441E-38</v>
+      </c>
+      <c r="E117" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5083333333333333E-19</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="179">
+        <f t="shared" si="11"/>
+        <v>19.400000000000002</v>
+      </c>
       <c r="C118" s="179">
         <v>1.9400000000000001E-18</v>
       </c>
       <c r="D118" s="186">
-        <f t="shared" si="9"/>
-        <v>3.1104132231404966E-38</v>
-      </c>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.22698224852071E-38</v>
+      </c>
+      <c r="E118" s="179">
+        <f t="shared" si="13"/>
+        <v>1.4923076923076923E-19</v>
+      </c>
+      <c r="G118" s="197">
+        <f>AVERAGE(E7:E130)</f>
+        <v>1.517944894906597E-19</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="179">
+        <f t="shared" si="11"/>
+        <v>22.3</v>
+      </c>
       <c r="C119" s="179">
         <v>2.2300000000000001E-18</v>
       </c>
       <c r="D119" s="186">
-        <f t="shared" si="9"/>
-        <v>2.9425443786982253E-38</v>
-      </c>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.2101777777777781E-38</v>
+      </c>
+      <c r="E119" s="179">
+        <f t="shared" si="13"/>
+        <v>1.4866666666666667E-19</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="179">
+        <f t="shared" si="11"/>
+        <v>19.099999999999998</v>
+      </c>
       <c r="C120" s="179">
         <v>1.9099999999999999E-18</v>
       </c>
       <c r="D120" s="186">
-        <f t="shared" si="9"/>
-        <v>3.0149586776859501E-38</v>
-      </c>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.1586390532544379E-38</v>
+      </c>
+      <c r="E120" s="179">
+        <f t="shared" si="13"/>
+        <v>1.4692307692307692E-19</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="179">
+        <f t="shared" si="11"/>
+        <v>10.299999999999999</v>
+      </c>
       <c r="C121" s="179">
         <v>1.0299999999999999E-18</v>
       </c>
       <c r="D121" s="186">
-        <f t="shared" si="9"/>
-        <v>2.9469444444444439E-38</v>
-      </c>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.1651020408163262E-38</v>
+      </c>
+      <c r="E121" s="179">
+        <f t="shared" si="13"/>
+        <v>1.4714285714285713E-19</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="179">
+        <f t="shared" si="11"/>
+        <v>10.299999999999999</v>
+      </c>
       <c r="C122" s="179">
         <v>1.0299999999999999E-18</v>
       </c>
       <c r="D122" s="186">
-        <f t="shared" si="9"/>
-        <v>2.9469444444444439E-38</v>
-      </c>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.1651020408163262E-38</v>
+      </c>
+      <c r="E122" s="179">
+        <f t="shared" si="13"/>
+        <v>1.4714285714285713E-19</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="179">
+        <f t="shared" si="11"/>
+        <v>10.4</v>
+      </c>
       <c r="C123" s="179">
         <v>1.0400000000000001E-18</v>
       </c>
       <c r="D123" s="186">
-        <f t="shared" si="9"/>
-        <v>3.0044444444444451E-38</v>
-      </c>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.2073469387755102E-38</v>
+      </c>
+      <c r="E123" s="179">
+        <f t="shared" si="13"/>
+        <v>1.4857142857142858E-19</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="179">
+        <f t="shared" si="11"/>
+        <v>10.5</v>
+      </c>
       <c r="C124" s="179">
         <v>1.05E-18</v>
       </c>
       <c r="D124" s="186">
-        <f t="shared" si="9"/>
-        <v>3.0625000000000001E-38</v>
-      </c>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.2499999999999998E-38</v>
+      </c>
+      <c r="E124" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5E-19</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="179">
+        <f t="shared" si="11"/>
+        <v>9.7000000000000011</v>
+      </c>
       <c r="C125" s="179">
         <v>9.7000000000000004E-19</v>
       </c>
       <c r="D125" s="186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.6136111111111113E-38</v>
       </c>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="179">
+        <f t="shared" si="13"/>
+        <v>1.6166666666666667E-19</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="179">
+        <f t="shared" si="11"/>
+        <v>9.11</v>
+      </c>
       <c r="C126" s="179">
         <v>9.1100000000000001E-19</v>
       </c>
       <c r="D126" s="186">
-        <f t="shared" si="9"/>
-        <v>3.3196840000000001E-38</v>
-      </c>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.3053361111111112E-38</v>
+      </c>
+      <c r="E126" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5183333333333333E-19</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="179">
+        <f t="shared" si="11"/>
+        <v>9.5599999999999987</v>
+      </c>
       <c r="C127" s="179">
         <v>9.5599999999999996E-19</v>
       </c>
       <c r="D127" s="186">
-        <f t="shared" si="9"/>
-        <v>3.6557439999999995E-38</v>
-      </c>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.5387111111111107E-38</v>
+      </c>
+      <c r="E127" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5933333333333332E-19</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="179">
+        <f t="shared" si="11"/>
+        <v>10.6</v>
+      </c>
       <c r="C128" s="179">
         <v>1.0599999999999999E-18</v>
       </c>
       <c r="D128" s="186">
-        <f t="shared" si="9"/>
-        <v>3.1211111111111111E-38</v>
-      </c>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.2930612244897957E-38</v>
+      </c>
+      <c r="E128" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5142857142857142E-19</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="179">
+        <f t="shared" si="11"/>
+        <v>10.6</v>
+      </c>
       <c r="C129" s="179">
         <v>1.0599999999999999E-18</v>
       </c>
       <c r="D129" s="186">
-        <f t="shared" si="9"/>
-        <v>3.1211111111111111E-38</v>
-      </c>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>2.2930612244897957E-38</v>
+      </c>
+      <c r="E129" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5142857142857142E-19</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="179">
+        <f t="shared" si="11"/>
+        <v>9.34</v>
+      </c>
       <c r="C130" s="179">
         <v>9.34E-19</v>
       </c>
       <c r="D130" s="186">
-        <f t="shared" si="9"/>
-        <v>3.4894239999999996E-38</v>
+        <f t="shared" si="12"/>
+        <v>2.423211111111111E-38</v>
+      </c>
+      <c r="E130" s="179">
+        <f t="shared" si="13"/>
+        <v>1.5566666666666667E-19</v>
       </c>
     </row>
   </sheetData>
@@ -51439,8 +52618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51456,17 +52635,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
@@ -51596,17 +52775,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -51951,10 +53130,10 @@
       </c>
       <c r="C30" s="13">
         <f t="array" ref="C30:G31">TRANSPOSE(A32:B36)</f>
-        <v>1.095590799270341E-7</v>
+        <v>1.0922784376990401E-7</v>
       </c>
       <c r="D30" s="13">
-        <v>1.1095268398525001E-7</v>
+        <v>1.0922784376990401E-7</v>
       </c>
       <c r="E30" s="13">
         <v>1.0994472325412362E-7</v>
@@ -51987,9 +53166,9 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <f>I22</f>
-        <v>1.095590799270341E-7</v>
+      <c r="A32" s="179">
+        <f>F28</f>
+        <v>1.0922784376990401E-7</v>
       </c>
       <c r="B32" s="5">
         <f>F22</f>
@@ -52001,25 +53180,25 @@
       </c>
       <c r="D32" s="13">
         <f t="shared" si="6"/>
-        <v>1.2558054792796738</v>
+        <v>1.267650270917887</v>
       </c>
       <c r="E32" s="13">
         <f t="shared" si="6"/>
-        <v>0.54616674137266641</v>
+        <v>0.54699008303259167</v>
       </c>
       <c r="F32" s="13">
         <f t="shared" si="6"/>
-        <v>0.19502266832641793</v>
+        <v>0.19531740521756141</v>
       </c>
       <c r="G32" s="13">
         <f t="shared" si="6"/>
-        <v>-0.64985825851563261</v>
+        <v>-0.65084333490347102</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <f>I23</f>
-        <v>1.1095268398525001E-7</v>
+      <c r="A33" s="179">
+        <f>A32</f>
+        <v>1.0922784376990401E-7</v>
       </c>
       <c r="B33" s="5">
         <f>F23</f>
@@ -52027,7 +53206,7 @@
       </c>
       <c r="C33" s="13">
         <f t="shared" si="6"/>
-        <v>-1.2558054792796738</v>
+        <v>-1.267650270917887</v>
       </c>
       <c r="D33" s="13">
         <f t="shared" si="6"/>
@@ -52035,15 +53214,15 @@
       </c>
       <c r="E33" s="13">
         <f t="shared" si="6"/>
-        <v>-0.71090881816955553</v>
+        <v>-0.71650714169905438</v>
       </c>
       <c r="F33" s="13">
         <f t="shared" si="6"/>
-        <v>-1.0613948525530088</v>
+        <v>-1.0697742380996329</v>
       </c>
       <c r="G33" s="13">
         <f t="shared" si="6"/>
-        <v>-1.9027672706169878</v>
+        <v>-1.9178339867483432</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -52057,11 +53236,11 @@
       </c>
       <c r="C34" s="13">
         <f t="shared" si="6"/>
-        <v>-0.54616674137266641</v>
+        <v>-0.54699008303259167</v>
       </c>
       <c r="D34" s="13">
         <f t="shared" si="6"/>
-        <v>0.71090881816955553</v>
+        <v>0.71650714169905438</v>
       </c>
       <c r="E34" s="13">
         <f t="shared" si="6"/>
@@ -52087,11 +53266,11 @@
       </c>
       <c r="C35" s="13">
         <f t="shared" si="6"/>
-        <v>-0.19502266832641793</v>
+        <v>-0.19531740521756141</v>
       </c>
       <c r="D35" s="13">
-        <f t="shared" si="6"/>
-        <v>1.0613948525530088</v>
+        <f>(D$31-$B35)/SQRT(D$30^2+$A35^2)</f>
+        <v>1.0697742380996329</v>
       </c>
       <c r="E35" s="13">
         <f t="shared" si="6"/>
@@ -52117,11 +53296,11 @@
       </c>
       <c r="C36" s="13">
         <f t="shared" si="6"/>
-        <v>0.64985825851563261</v>
+        <v>0.65084333490347102</v>
       </c>
       <c r="D36" s="13">
         <f t="shared" si="6"/>
-        <v>1.9027672706169878</v>
+        <v>1.9178339867483432</v>
       </c>
       <c r="E36" s="13">
         <f t="shared" si="6"/>
@@ -52906,8 +54085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52923,17 +54102,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
@@ -53069,17 +54248,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -54381,8 +55560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="H25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V51" sqref="V51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54398,17 +55577,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
@@ -54544,17 +55723,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -55867,8 +57046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55884,17 +57063,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="34" t="s">
@@ -56030,17 +57209,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -57359,17 +58538,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
@@ -57505,17 +58684,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="44"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="44"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -58840,17 +60019,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="49" t="s">
@@ -58986,17 +60165,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="52"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -60321,17 +61500,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="193" t="str">
         <f>[1]Dati!A1</f>
         <v>Costanti varie</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="57" t="s">
@@ -60467,17 +61646,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="60"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="60"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
